--- a/molgenis-model-registry/src/test/resources/DAS-MODELv1.6.xlsx
+++ b/molgenis-model-registry/src/test/resources/DAS-MODELv1.6.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="33900" yWindow="0" windowWidth="24840" windowHeight="14580" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="6" r:id="rId1"/>
-    <sheet name="entities" sheetId="4" r:id="rId2"/>
+    <sheet name="entities" sheetId="11" r:id="rId2"/>
     <sheet name="attributes" sheetId="3" r:id="rId3"/>
     <sheet name="authority" sheetId="9" r:id="rId4"/>
     <sheet name="type" sheetId="10" r:id="rId5"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="521">
   <si>
     <t>description</t>
   </si>
@@ -92,9 +92,6 @@
     <t>das</t>
   </si>
   <si>
-    <t>DAS - Distributed Sequence Annotation System</t>
-  </si>
-  <si>
     <t>DAS</t>
   </si>
   <si>
@@ -1071,9 +1068,6 @@
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Response</t>
   </si>
   <si>
     <t>source</t>
@@ -1249,32 +1243,6 @@
     <t>The href (required) attribute echoes the URL query that was used to fetch the current document.</t>
   </si>
   <si>
-    <r>
-      <t>The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>total</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> (required) attribute is the total number of entry points known by the source, irrespective of how many are returned in the current response.</t>
-    </r>
-  </si>
-  <si>
     <t>strat</t>
   </si>
   <si>
@@ -1302,85 +1270,12 @@
     <t>The id is a unique identifier for a reference object, and can be used as the reference ID in further requests to DAS.</t>
   </si>
   <si>
-    <r>
-      <t>The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>start</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>stop</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> attributes indicate the size of the segment. The server must include these if it knows them, but they are otherwise optional.</t>
-    </r>
-  </si>
-  <si>
     <t>start</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <r>
-      <t>The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>version</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> attribute (optional) indicates the version of the reference object, used for coordinate systems which are not themselves versioned.</t>
-    </r>
-  </si>
-  <si>
     <t>orientation</t>
   </si>
   <si>
@@ -1391,105 +1286,6 @@
   </si>
   <si>
     <t>content</t>
-  </si>
-  <si>
-    <r>
-      <t>The optional </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>orientation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> attribute indicates the strandedness of the segment. Its value is one of "+" or "-" or "0". If omitted, a value of "0" (no intrinsic strand) is assumed.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If the optional </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>subparts</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> attribute is present and has the value "yes", it indicates that the segment has subparts.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If the optional </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> attribute is present, it can be used to describe the type of the reference object. It should match the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> component of the coordinate system.</t>
-    </r>
   </si>
   <si>
     <t>dassequence</t>
@@ -1575,52 +1371,98 @@
     </r>
   </si>
   <si>
-    <t>moltype</t>
-  </si>
-  <si>
     <t>indicates the reference ID for this sequence</t>
   </si>
   <si>
+    <t>The content of this tag is the sequence itself, using standard IUPAC codes for DNA, RNA and protein.</t>
+  </si>
+  <si>
+    <t>dastypes</t>
+  </si>
+  <si>
+    <t>gff</t>
+  </si>
+  <si>
+    <t>(required; one only)</t>
+  </si>
+  <si>
+    <t>The appropriate root tag is DASTYPES.</t>
+  </si>
+  <si>
+    <t>(required; one only) There is a single &lt;GFF&gt; tag</t>
+  </si>
+  <si>
+    <t>There is a single &lt;GFF&gt; tag</t>
+  </si>
+  <si>
+    <t>The &lt;SEGMENT&gt; tag identifies the reference segment to which the list of types applies.</t>
+  </si>
+  <si>
+    <t>(optional; zero or more per SEGMENT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string </t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>cvId</t>
+  </si>
+  <si>
+    <t>The cvId attribute (optional, recommended) is the ID of a term from a relevant controlled vocabulary (SO, MOD, BS). See the Ontology section for more details.</t>
+  </si>
+  <si>
+    <t>contents</t>
+  </si>
+  <si>
+    <t>The tag contents (optional) is a count of the number of features of this type across the segment.</t>
+  </si>
+  <si>
+    <t>If no segment parameter was used in the request, the list of types applies to the whole data source and this element has no attributes.</t>
+  </si>
+  <si>
+    <t>Otherwise, the list of types applies to the specific query segment identified by the required id attribute</t>
+  </si>
+  <si>
+    <t>Each segment has zero or more &lt;TYPE&gt; tags, which summarise the types of annotation available.</t>
+  </si>
+  <si>
+    <t>dasgff</t>
+  </si>
+  <si>
+    <t>The appropriate root tag is DASGFF.</t>
+  </si>
+  <si>
+    <t>There is a single &lt;GFF&gt; tag.</t>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t>(optional; zero or more per SEGMENT) There are zero or more &lt;FEATURE&gt; tags per &lt;SEGMENT&gt;, each providing information on one annotation.</t>
+  </si>
+  <si>
+    <t>(required; one per FEATURE)</t>
+  </si>
+  <si>
+    <t>The start and stop attributes indicate the position within the segment queried. The server must include these if it knows them or can deduce them from the request, but they are otherwise optional. Note that the start and stop need not necessarily match the request exactly, for example if the server has more accurate information for the length of a segment.</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>superparts</t>
+  </si>
+  <si>
+    <t>The optional reference, subparts and superparts attributes for the use of reference servers with multiple coordinate systems in a hierarchy (such as a genomic assembly). They provide a way to reconstruct the hierarchy, and are described in the Fetching Assembly Information section. Valid values for these attributes are "yes" and "no". If an attribute is omitted, "no" is assumed.</t>
+  </si>
+  <si>
+    <t>Note that it is not permitted for multiple TYPE elements with the same ID to have different attributes or content to each other.</t>
+  </si>
+  <si>
     <r>
-      <t>start</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>stop</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, which indicate the position of this segment within the reference sequence</t>
-    </r>
-  </si>
-  <si>
-    <t>The content of this tag is the sequence itself, using standard IUPAC codes for DNA, RNA and protein.</t>
-  </si>
-  <si>
-    <r>
-      <t>The </t>
+      <t>The &lt;SEGMENT&gt; tag provides information on the reference segment queried. The </t>
     </r>
     <r>
       <rPr>
@@ -1631,7 +1473,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>version</t>
+      <t>id</t>
     </r>
     <r>
       <rPr>
@@ -1641,12 +1483,168 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t> attribute (optional) indicates the version of the reference object, used for coordinate systems which are not themselves versioned.</t>
+      <t> attribute is required.</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">The tag contents (optional) is a human readable label for display purposes. if Omitted, it is assumed the type ID is appropriate for display. </t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>(required; one per FEATURE) Each feature has one &lt;METHOD&gt; field, which identifies the method used to identify the feature. The idattribute is required.</t>
+  </si>
+  <si>
+    <t>The tag contents (optional) is a human readable label representing the name of the method. If omitted, it is assumed the method ID is suitable for display.</t>
+  </si>
+  <si>
+    <t>&lt;START&gt;, &lt;END&gt; (optional; one apiece per FEATURE) These tags indicate the start and end of the feature in the coordinate system of the reference object given in the &lt;SEGMENT&gt; tag. If one element is present, the other must be also. In addition, start must not be less than zero and end must not be less than start. If start and end are zero, or omitted entirely, it is assumed that the feature is an annotation of the reference object as a whole rather than a region of sequence. These are known as non-positionalannotations.</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>enumOptions</t>
+  </si>
+  <si>
+    <t>0,1,2</t>
+  </si>
+  <si>
+    <t>This is an integer or floating point number indicating the "score" of the method used to find the current feature. If this field is inapplicable, the contents of the tag can be replaced with a - symbol. This is the assumed value if the tag is omitted entirely.</t>
+  </si>
+  <si>
+    <t>This tag indicates the orientation of the feature relative to the direction of transcription. It may be 0 for features that are unrelated to transcription, +, for features that are on the sense strand, and -, for features on the antisense strand. If this tag is omitted, a value of 0 is assumed.</t>
+  </si>
+  <si>
+    <t>This tag indicates the position of the feature relative to open reading frame, if any. It may be one of the integers 0, 1 or 2, corresponding to each of the three reading frames, or - if the feature is unrelated to a reading frame. If this tag is omitted, a value of - is assumed.</t>
+  </si>
+  <si>
+    <t>phase</t>
+  </si>
+  <si>
+    <t>0,+,-</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>The total (required) attribute is the total number of entry points known by the source, irrespective of how many are returned in the current response.</t>
+  </si>
+  <si>
+    <t>The start and stop attributes indicate the size of the segment. The server must include these if it knows them, but they are otherwise optional.</t>
+  </si>
+  <si>
+    <t>The version attribute (optional) indicates the version of the reference object, used for coordinate systems which are not themselves versioned.</t>
+  </si>
+  <si>
+    <t>The optional orientation attribute indicates the strandedness of the segment. Its value is one of "+" or "-" or "0". If omitted, a value of "0" (no intrinsic strand) is assumed.</t>
+  </si>
+  <si>
+    <t>If the optional subparts attribute is present and has the value "yes", it indicates that the segment has subparts.</t>
+  </si>
+  <si>
+    <t>If the optional type attribute is present, it can be used to describe the type of the reference object. It should match the type component of the coordinate system.</t>
+  </si>
+  <si>
+    <t>start and stop, which indicate the position of this segment within the reference sequence</t>
+  </si>
+  <si>
+    <t>The version attribute (optional) indicates the version of the reference object, used for coordinate systems which are not themselves versioned.</t>
+  </si>
+  <si>
+    <t>The label attribute (optional) supplies a human readable label for display purposes. If omitted, it is assumed the ID is suitable for display.</t>
+  </si>
+  <si>
+    <t>The start and stop attributes must be included if the server knows them or they can be deduced from the request, but they are otherwise optional</t>
+  </si>
+  <si>
+    <t>The version attribute (optional) indicates the version of the reference object being annotated, used for coordinate systems which are not themselves versioned.</t>
+  </si>
+  <si>
+    <t>The id attribute (required) is an identifier for the annotation type that is unique within the data source.</t>
+  </si>
+  <si>
+    <t>The category attribute (optional) provides functional grouping to related types.</t>
+  </si>
+  <si>
+    <t>The href (required) attribute echoes the URL query that was used to fetch the current document.</t>
+  </si>
+  <si>
+    <t>The id attribute is required.</t>
+  </si>
+  <si>
+    <t>The optional label attribute provides a human readable label for display purposes. If omitted, it is assumed the ID is appropriate for display.</t>
+  </si>
+  <si>
+    <t>The id attribute (required) is an identifier for the feature. it must be unique to the feature across the data source.</t>
+  </si>
+  <si>
+    <t>The label attribute (optional) is a suggested label to display for the feature. If not present, it is assumed the id attribute is suitable for display.</t>
+  </si>
+  <si>
+    <t>A human-readable note in plain text format only.</t>
+  </si>
+  <si>
+    <t>A link to a web page somewhere that provides more information about this feature. The href (required) attribute provides the URL target for the link. The link text is an optional human readable label for display purposes.</t>
+  </si>
+  <si>
+    <t>The target sequence in a sequence similarity match. The id attribute provides the reference ID for the target sequence, and the start and stop attributes indicate the segment that matched across the target sequence. All three attributes are required.</t>
+  </si>
+  <si>
+    <t>The attributes are id(required), which is a unique ID for the annotation type. The type ID and category may be used as keys into the stylesheet to select the glyph and graphical characteristics for the feature.</t>
+  </si>
+  <si>
+    <t>category (optional, recommended), which provides functional grouping to related types</t>
+  </si>
+  <si>
+    <t>cvId (optional, recommended) which is the ID of a term from a relevant controlled vocabulary</t>
+  </si>
+  <si>
+    <t>The idattribute is required.</t>
+  </si>
+  <si>
+    <t>The cvId (optional, recommended) attribute is an ontology term ID from the Evidence Codes Ontology, and as such is a generic (potentially less specific) representation of the method.</t>
+  </si>
+  <si>
+    <t>The id attribute provides the reference ID for the target sequence,</t>
+  </si>
+  <si>
+    <t>the start and stop attributes indicate the segment that matched across the target sequence.</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>&lt;PARENT&gt;, &lt;PART&gt; (optional; zero or more per FEATURE) A replacement for the &lt;GROUP&gt; tag, these tags identify other features that are parents or children of this feature within a hierarchy. Each has a single required attribute, id, which refers to a separate &lt;FEATURE&gt; tag. This mechanism means a parent or child feature need only be defined once and may be referred to multiple times. This is preferable to the use of &lt;GROUP&gt; tags, where a parent must be defined separately for every child. It also allows more than two levels of hierarchy to be defined, and gives parent features start/end positions. Note that this approach differs in that a parent-part relationship must be declared in both features. That is, all parents must include references to all of their parts using &lt;PART&gt; tags, and all parts must include references to all of their parents using &lt;PARENT&gt; tags.</t>
+  </si>
+  <si>
+    <t>&lt;TARGET&gt; (optional; zero or more per FEATURE) The target sequence in a sequence similarity match. The id attribute provides the reference ID for the target sequence, and the start and stop attributes indicate the segment that matched across the target sequence. All three attributes are required.</t>
+  </si>
+  <si>
+    <t>&lt;METHOD&gt; (required; one per FEATUREEach feature has one &lt;METHOD&gt; field, which identifies the method used to identify the feature. The id attribute is required. The cvId (optional, recommended) attribute is an ontology term ID from the Evidence Codes Ontology.</t>
+  </si>
+  <si>
+    <t>parts</t>
+  </si>
+  <si>
+    <t>parents</t>
+  </si>
+  <si>
     <r>
-      <t>The </t>
+      <t>Each has a single required attribute, </t>
     </r>
     <r>
       <rPr>
@@ -1657,7 +1655,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>label</t>
+      <t>id</t>
     </r>
     <r>
       <rPr>
@@ -1667,23 +1665,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t> attribute (optional) supplies a human readable label for display purposes. If omitted, it is assumed the ID is suitable for display.</t>
+      <t>, which refers to a separate &lt;FEATURE&gt; tag</t>
     </r>
   </si>
   <si>
     <r>
-      <t>The </t>
+      <t>The response to the </t>
     </r>
     <r>
       <rPr>
-        <b/>
+        <i/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>moltype</t>
+      <t>sources</t>
     </r>
     <r>
       <rPr>
@@ -1693,15 +1691,51 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t> attribute indicates the molecular type of the sequence, being one of DNA, ssRNA, dsRNA, or Protein. No provision is made for circular molecules. This attribute is deprecated, being implicit in the coordinate system.</t>
+      <t> command is the "SOURCES" XML-formatted document</t>
     </r>
+  </si>
+  <si>
+    <t>DAS Registry</t>
+  </si>
+  <si>
+    <t>DAS sources</t>
+  </si>
+  <si>
+    <t>DAS Entry Points</t>
+  </si>
+  <si>
+    <t>DAS Sequence</t>
+  </si>
+  <si>
+    <t>DAS Types</t>
+  </si>
+  <si>
+    <t>Distributed Annotation System (DAS), Version 1.6, Draft 1, Andrew M. Jenkinson, March 30, 2009 link: http://www.ebi.ac.uk/~aj/1.6_draft1/documents/spec.html implemented: 1.sources 2.entry_points 3.sequence 4.types 5.features.</t>
+  </si>
+  <si>
+    <t>DAS GFF</t>
+  </si>
+  <si>
+    <t>segmenttype</t>
+  </si>
+  <si>
+    <t>gff2</t>
+  </si>
+  <si>
+    <t>gff2segment</t>
+  </si>
+  <si>
+    <t>featuretype</t>
+  </si>
+  <si>
+    <t>TODO: circular dependencies ref to &lt;PARENT&gt;, &lt;PART&gt; (optional; zero or more per FEATURE) A replacement for the &lt;GROUP&gt; tag, these tags identify other features that are parents or children of this feature within a hierarchy. Each has a single required attribute, id, which refers to a separate &lt;FEATURE&gt; tag. This mechanism means a parent or child feature need only be defined once and may be referred to multiple times. This is preferable to the use of &lt;GROUP&gt; tags, where a parent must be defined separately for every child. It also allows more than two levels of hierarchy to be defined, and gives parent features start/end positions. Note that this approach differs in that a parent-part relationship must be declared in both features. That is, all parents must include references to all of their parts using &lt;PART&gt; tags, and all parts must include references to all of their parents using &lt;PARENT&gt; tags.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1749,6 +1783,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1767,7 +1807,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="270">
+  <cellStyleXfs count="398">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2038,26 +2078,144 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="270">
+  <cellStyles count="398">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2217,6 +2375,113 @@
     <cellStyle name="Followed Hyperlink" xfId="265" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="267" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="397" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2327,9 +2592,190 @@
     <cellStyle name="Hyperlink" xfId="264" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="266" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="268" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="270" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="272" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="274" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="276" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="278" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="280" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="282" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="284" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="286" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="294" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="296" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="298" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="300" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="302" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="304" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="306" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="308" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="310" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2918,17 +3364,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="119.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2946,29 +3391,98 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="90">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>363</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>392</v>
+        <v>361</v>
+      </c>
+      <c r="B3" t="s">
+        <v>390</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>348</v>
+        <v>509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>508</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B6" t="s">
+        <v>512</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>426</v>
+      </c>
+      <c r="B7" t="s">
+        <v>513</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>443</v>
+      </c>
+      <c r="B8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -2984,19 +3498,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="154.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3006,7 +3516,7 @@
       <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
@@ -3015,157 +3525,299 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>344</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>363</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>346</v>
+        <v>361</v>
+      </c>
+      <c r="C3" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="6" t="s">
-        <v>353</v>
+      <c r="A4" t="s">
+        <v>351</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="6" t="s">
-        <v>362</v>
+      <c r="A5" t="s">
+        <v>360</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>396</v>
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="6" t="s">
-        <v>24</v>
+      <c r="A6" t="s">
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>370</v>
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="6" t="s">
-        <v>27</v>
+      <c r="A9" t="s">
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>375</v>
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="6" t="s">
-        <v>355</v>
+      <c r="A10" t="s">
+        <v>353</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>379</v>
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="6" t="s">
-        <v>399</v>
+      <c r="A11" t="s">
+        <v>397</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>397</v>
       </c>
       <c r="C11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C12" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="6" t="s">
-        <v>412</v>
-      </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>397</v>
       </c>
       <c r="C13" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="6" t="s">
+      <c r="A14" t="s">
+        <v>418</v>
+      </c>
+      <c r="B14" t="s">
+        <v>418</v>
+      </c>
+      <c r="C14" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>421</v>
+      </c>
+      <c r="B15" t="s">
+        <v>418</v>
+      </c>
+      <c r="C15" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
         <v>426</v>
       </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B16" t="s">
+        <v>426</v>
+      </c>
+      <c r="C16" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B17" t="s">
+        <v>426</v>
+      </c>
+      <c r="C17" t="s">
         <v>431</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>409</v>
+      </c>
+      <c r="B18" t="s">
+        <v>426</v>
+      </c>
+      <c r="C18" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B19" t="s">
+        <v>426</v>
+      </c>
+      <c r="C19" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B20" t="s">
+        <v>443</v>
+      </c>
+      <c r="C20" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>517</v>
+      </c>
+      <c r="B21" t="s">
+        <v>443</v>
+      </c>
+      <c r="C21" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B22" t="s">
+        <v>443</v>
+      </c>
+      <c r="C22" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>446</v>
+      </c>
+      <c r="B23" t="s">
+        <v>443</v>
+      </c>
+      <c r="C23" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B24" t="s">
+        <v>443</v>
+      </c>
+      <c r="C24" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>456</v>
+      </c>
+      <c r="B25" t="s">
+        <v>443</v>
+      </c>
+      <c r="C25" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>472</v>
+      </c>
+      <c r="B26" t="s">
+        <v>443</v>
+      </c>
+      <c r="C26" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>443</v>
+      </c>
+      <c r="C27" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>501</v>
+      </c>
+      <c r="B28" t="s">
+        <v>443</v>
+      </c>
+      <c r="C28" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -3182,30 +3834,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="95.5" customWidth="1"/>
-    <col min="8" max="8" width="23.1640625" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3245,13 +3887,16 @@
       <c r="M1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -3263,15 +3908,15 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -3283,15 +3928,15 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -3303,35 +3948,35 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -3343,15 +3988,15 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -3360,15 +4005,15 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -3377,15 +4022,15 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -3394,58 +4039,58 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -3454,15 +4099,15 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -3471,15 +4116,15 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -3491,15 +4136,15 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -3511,15 +4156,15 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B16" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -3528,15 +4173,15 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -3548,92 +4193,92 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D19" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B22" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
@@ -3645,55 +4290,55 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B23" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C23" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C24" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B25" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
@@ -3702,15 +4347,15 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
@@ -3719,15 +4364,15 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B27" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
@@ -3736,15 +4381,15 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B28" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
@@ -3753,15 +4398,15 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B29" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
@@ -3773,15 +4418,15 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B30" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C30" t="s">
         <v>18</v>
@@ -3790,15 +4435,15 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>405</v>
+        <v>473</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B31" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -3807,15 +4452,15 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B32" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C32" t="s">
         <v>18</v>
@@ -3824,35 +4469,35 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B33" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C33" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D33" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F33" t="b">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B34" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C34" t="s">
         <v>18</v>
@@ -3864,35 +4509,35 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B35" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B36" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C36" t="s">
         <v>18</v>
@@ -3904,15 +4549,15 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B37" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
@@ -3921,15 +4566,15 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>415</v>
+        <v>474</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B38" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
@@ -3938,15 +4583,15 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>415</v>
+        <v>474</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
@@ -3955,15 +4600,15 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>418</v>
+        <v>475</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B40" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
@@ -3972,15 +4617,15 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B41" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C41" t="s">
         <v>18</v>
@@ -3989,32 +4634,32 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G42" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B43" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C43" t="s">
         <v>18</v>
@@ -4023,15 +4668,15 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B44" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
@@ -4043,32 +4688,35 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B45" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C45" t="s">
-        <v>361</v>
+        <v>359</v>
+      </c>
+      <c r="D45" t="s">
+        <v>421</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B46" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C46" t="s">
         <v>18</v>
@@ -4080,15 +4728,15 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B47" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C47" t="s">
         <v>18</v>
@@ -4097,15 +4745,15 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>434</v>
+        <v>479</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B48" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
@@ -4114,15 +4762,15 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C49" t="s">
         <v>18</v>
@@ -4131,15 +4779,15 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C50" t="s">
         <v>18</v>
@@ -4148,15 +4796,15 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="B51" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C51" t="s">
         <v>18</v>
@@ -4165,154 +4813,1194 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="B52" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
       </c>
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
       <c r="F52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>427</v>
+      </c>
+      <c r="B53" t="s">
+        <v>426</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>427</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>400</v>
+      </c>
+      <c r="B54" t="s">
+        <v>427</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>409</v>
+      </c>
+      <c r="B55" t="s">
+        <v>427</v>
+      </c>
+      <c r="C55" t="s">
+        <v>359</v>
+      </c>
+      <c r="D55" t="s">
+        <v>409</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>407</v>
+      </c>
+      <c r="B56" t="s">
+        <v>409</v>
+      </c>
+      <c r="C56" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>412</v>
+      </c>
+      <c r="B57" t="s">
+        <v>409</v>
+      </c>
+      <c r="C57" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" t="b">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>413</v>
+      </c>
+      <c r="B58" t="s">
+        <v>409</v>
+      </c>
+      <c r="C58" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" t="b">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" t="s">
+        <v>409</v>
+      </c>
+      <c r="C59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" t="b">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>409</v>
+      </c>
+      <c r="C60" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" t="b">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>481</v>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" t="s">
+        <v>409</v>
+      </c>
+      <c r="C61" t="s">
+        <v>359</v>
+      </c>
+      <c r="D61" t="s">
+        <v>516</v>
+      </c>
+      <c r="F61" t="b">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>407</v>
+      </c>
+      <c r="B62" t="s">
+        <v>516</v>
+      </c>
+      <c r="C62" t="s">
+        <v>434</v>
+      </c>
+      <c r="E62" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
         <v>435</v>
       </c>
+      <c r="B63" t="s">
+        <v>516</v>
+      </c>
+      <c r="C63" t="s">
+        <v>434</v>
+      </c>
+      <c r="F63" t="b">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>436</v>
+      </c>
+      <c r="B64" t="s">
+        <v>516</v>
+      </c>
+      <c r="C64" t="s">
+        <v>434</v>
+      </c>
+      <c r="F64" t="b">
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>438</v>
+      </c>
+      <c r="B65" t="s">
+        <v>516</v>
+      </c>
+      <c r="C65" t="s">
+        <v>434</v>
+      </c>
+      <c r="F65" t="b">
+        <v>1</v>
+      </c>
+      <c r="G65" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>407</v>
+      </c>
+      <c r="B66" t="s">
+        <v>443</v>
+      </c>
+      <c r="C66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>427</v>
+      </c>
+      <c r="B67" t="s">
+        <v>443</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>517</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>400</v>
+      </c>
+      <c r="B68" t="s">
+        <v>517</v>
+      </c>
+      <c r="C68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" t="b">
+        <v>1</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>409</v>
+      </c>
+      <c r="B69" t="s">
+        <v>517</v>
+      </c>
+      <c r="C69" t="s">
+        <v>359</v>
+      </c>
+      <c r="D69" t="s">
+        <v>518</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>407</v>
+      </c>
+      <c r="B70" t="s">
+        <v>518</v>
+      </c>
+      <c r="C70" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>412</v>
+      </c>
+      <c r="B71" t="s">
+        <v>518</v>
+      </c>
+      <c r="C71" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" t="b">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>413</v>
+      </c>
+      <c r="B72" t="s">
+        <v>518</v>
+      </c>
+      <c r="C72" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" t="b">
+        <v>1</v>
+      </c>
+      <c r="G72" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>26</v>
+      </c>
+      <c r="B73" t="s">
+        <v>518</v>
+      </c>
+      <c r="C73" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" t="b">
+        <v>1</v>
+      </c>
+      <c r="G73" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
+        <v>518</v>
+      </c>
+      <c r="C74" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" t="b">
+        <v>1</v>
+      </c>
+      <c r="G74" t="s">
+        <v>488</v>
+      </c>
+      <c r="I74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>446</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C75" t="s">
+        <v>359</v>
+      </c>
+      <c r="D75" t="s">
+        <v>446</v>
+      </c>
+      <c r="F75" t="b">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>407</v>
+      </c>
+      <c r="B76" t="s">
+        <v>446</v>
+      </c>
+      <c r="C76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" t="s">
+        <v>446</v>
+      </c>
+      <c r="F77" t="b">
+        <v>1</v>
+      </c>
+      <c r="G77" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78" t="s">
+        <v>446</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>519</v>
+      </c>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>456</v>
+      </c>
+      <c r="B79" t="s">
+        <v>446</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>456</v>
+      </c>
+      <c r="F79" t="b">
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>412</v>
+      </c>
+      <c r="B80" t="s">
+        <v>446</v>
+      </c>
+      <c r="C80" t="s">
+        <v>434</v>
+      </c>
+      <c r="F80" t="b">
+        <v>1</v>
+      </c>
+      <c r="G80" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" t="s">
+        <v>404</v>
+      </c>
+      <c r="B81" t="s">
+        <v>446</v>
+      </c>
+      <c r="C81" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" t="b">
+        <v>1</v>
+      </c>
+      <c r="G81" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" t="s">
+        <v>460</v>
+      </c>
+      <c r="B82" t="s">
+        <v>446</v>
+      </c>
+      <c r="C82" t="s">
+        <v>469</v>
+      </c>
+      <c r="F82" t="b">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" t="s">
+        <v>414</v>
+      </c>
+      <c r="B83" t="s">
+        <v>446</v>
+      </c>
+      <c r="C83" t="s">
+        <v>461</v>
+      </c>
+      <c r="F83" t="b">
+        <v>1</v>
+      </c>
+      <c r="G83" t="s">
+        <v>465</v>
+      </c>
+      <c r="N83" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" t="s">
+        <v>467</v>
+      </c>
+      <c r="B84" t="s">
+        <v>446</v>
+      </c>
+      <c r="C84" t="s">
+        <v>461</v>
+      </c>
+      <c r="F84" t="b">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
+        <v>466</v>
+      </c>
+      <c r="N84" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" t="s">
+        <v>470</v>
+      </c>
+      <c r="B85" t="s">
+        <v>446</v>
+      </c>
+      <c r="C85" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" t="b">
+        <v>1</v>
+      </c>
+      <c r="G85" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" t="s">
+        <v>471</v>
+      </c>
+      <c r="B86" t="s">
+        <v>446</v>
+      </c>
+      <c r="C86" t="s">
+        <v>17</v>
+      </c>
+      <c r="F86" t="b">
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" t="s">
+        <v>472</v>
+      </c>
+      <c r="B87" t="s">
+        <v>446</v>
+      </c>
+      <c r="C87" t="s">
+        <v>359</v>
+      </c>
+      <c r="D87" t="s">
+        <v>472</v>
+      </c>
+      <c r="F87" t="b">
+        <v>1</v>
+      </c>
+      <c r="G87" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" t="s">
+        <v>407</v>
+      </c>
+      <c r="B88" t="s">
+        <v>519</v>
+      </c>
+      <c r="C88" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" t="b">
+        <v>1</v>
+      </c>
+      <c r="F88" t="b">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" t="s">
+        <v>435</v>
+      </c>
+      <c r="B89" t="s">
+        <v>519</v>
+      </c>
+      <c r="C89" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89" t="b">
+        <v>1</v>
+      </c>
+      <c r="G89" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" t="s">
+        <v>436</v>
+      </c>
+      <c r="B90" t="s">
+        <v>519</v>
+      </c>
+      <c r="C90" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90" t="b">
+        <v>1</v>
+      </c>
+      <c r="G90" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" t="s">
+        <v>450</v>
+      </c>
+      <c r="B91" t="s">
+        <v>519</v>
+      </c>
+      <c r="C91" t="s">
+        <v>18</v>
+      </c>
+      <c r="F91" t="b">
+        <v>1</v>
+      </c>
+      <c r="G91" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" t="s">
+        <v>415</v>
+      </c>
+      <c r="B92" t="s">
+        <v>519</v>
+      </c>
+      <c r="C92" t="s">
+        <v>18</v>
+      </c>
+      <c r="F92" t="b">
+        <v>1</v>
+      </c>
+      <c r="G92" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" t="s">
+        <v>451</v>
+      </c>
+      <c r="B93" t="s">
+        <v>519</v>
+      </c>
+      <c r="C93" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" t="b">
+        <v>1</v>
+      </c>
+      <c r="G93" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" t="s">
+        <v>417</v>
+      </c>
+      <c r="B94" t="s">
+        <v>519</v>
+      </c>
+      <c r="C94" t="s">
+        <v>18</v>
+      </c>
+      <c r="F94" t="b">
+        <v>1</v>
+      </c>
+      <c r="G94" t="s">
+        <v>455</v>
+      </c>
+      <c r="I94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" t="s">
+        <v>407</v>
+      </c>
+      <c r="B95" t="s">
+        <v>456</v>
+      </c>
+      <c r="C95" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95" t="b">
+        <v>1</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+      <c r="G95" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" t="s">
+        <v>436</v>
+      </c>
+      <c r="B96" t="s">
+        <v>456</v>
+      </c>
+      <c r="C96" t="s">
+        <v>18</v>
+      </c>
+      <c r="F96" t="b">
+        <v>1</v>
+      </c>
+      <c r="G96" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>417</v>
+      </c>
+      <c r="B97" t="s">
+        <v>456</v>
+      </c>
+      <c r="C97" t="s">
+        <v>18</v>
+      </c>
+      <c r="F97" t="b">
+        <v>1</v>
+      </c>
+      <c r="G97" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>407</v>
+      </c>
+      <c r="B98" t="s">
+        <v>472</v>
+      </c>
+      <c r="C98" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98" t="b">
+        <v>1</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+      <c r="G98" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>412</v>
+      </c>
+      <c r="B99" t="s">
+        <v>472</v>
+      </c>
+      <c r="C99" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+      <c r="G99" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>413</v>
+      </c>
+      <c r="B100" t="s">
+        <v>472</v>
+      </c>
+      <c r="C100" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+      <c r="G100" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>407</v>
+      </c>
+      <c r="B101" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101" t="s">
+        <v>434</v>
+      </c>
+      <c r="E101" t="b">
+        <v>1</v>
+      </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+      <c r="G101" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>505</v>
+      </c>
+      <c r="B102" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102" t="b">
+        <v>1</v>
+      </c>
+      <c r="G102" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>407</v>
+      </c>
+      <c r="B103" t="s">
+        <v>501</v>
+      </c>
+      <c r="C103" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103" t="b">
+        <v>1</v>
+      </c>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+      <c r="G103" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>506</v>
+      </c>
+      <c r="B104" t="s">
+        <v>501</v>
+      </c>
+      <c r="C104" t="s">
+        <v>434</v>
+      </c>
+      <c r="F104" t="b">
+        <v>1</v>
+      </c>
+      <c r="G104" t="s">
+        <v>520</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1 C3:C5 C7 D5 A27:H27 E24:H24 A13:H15 A29:A32 G29 C29:C32 A25:E26 G25:H26 A28:E28 G28:H28 B34:B35 C36:C1048576">
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="C1 C3:C5 C7 D5 A27:H27 E24:H24 A13:H15 A29:A32 G29 C29:C32 A25:E26 G25:H26 A28:E28 G28:H28 B34:B35 C36:C67 D75 C70:C90 C94:C1048576">
+    <cfRule type="cellIs" dxfId="41" priority="48" operator="equal">
+      <formula>"xref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="cellIs" dxfId="40" priority="46" operator="equal">
+      <formula>"xref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="cellIs" dxfId="39" priority="44" operator="equal">
+      <formula>"xref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:C10">
+    <cfRule type="cellIs" dxfId="38" priority="43" operator="equal">
+      <formula>"xref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C20">
+    <cfRule type="cellIs" dxfId="37" priority="42" operator="equal">
+      <formula>"xref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11 C17:C18">
+    <cfRule type="cellIs" dxfId="36" priority="41" operator="equal">
+      <formula>"xref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
+      <formula>"xref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="cellIs" dxfId="34" priority="39" operator="equal">
+      <formula>"xref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="cellIs" dxfId="33" priority="38" operator="equal">
+      <formula>"xref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C12 D5 C17:C21 A27:H27 E24:H24 A13:H15 A29:A32 G29 C29:C32 A25:E26 G25:H26 A28:E28 G28:H28 B34:B35 C36:C67 D75 C70:C90 C94:C1048576">
+    <cfRule type="cellIs" dxfId="32" priority="37" operator="equal">
+      <formula>"mref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:E23 G22:H23 A24:C24">
+    <cfRule type="cellIs" dxfId="31" priority="35" operator="equal">
+      <formula>"xref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:E23 G22:H23 A24:C24">
+    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
+      <formula>"mref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
+      <formula>"xref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+      <formula>"mref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:B16 F16:G16">
+    <cfRule type="cellIs" dxfId="27" priority="31" operator="equal">
+      <formula>"xref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:B16 F16:G16">
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
+      <formula>"mref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35 C35 A34 C34:D34 F34:H34">
     <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
-      <formula>"xref"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
-      <formula>"xref"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:C10">
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
-      <formula>"xref"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19:C20">
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
-      <formula>"xref"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11 C17:C18">
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
-      <formula>"xref"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
-      <formula>"xref"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
-      <formula>"xref"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
-      <formula>"xref"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C12 D5 C17:C21 A27:H27 E24:H24 A13:H15 A29:A32 G29 C29:C32 A25:E26 G25:H26 A28:E28 G28:H28 B34:B35 C36:C1048576">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
-      <formula>"mref"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:E23 G22:H23 A24:C24">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
-      <formula>"xref"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:E23 G22:H23 A24:C24">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
-      <formula>"mref"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>"xref"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>"mref"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:B16 F16:G16">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>"xref"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:B16 F16:G16">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>"mref"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G35 C35 A34 C34:D34 F34:H34">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>"xref"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G35 C35 A34 C34:D34 F34:H34">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+      <formula>"mref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52">
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
+      <formula>"xref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52">
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
+      <formula>"mref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
+      <formula>"xref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+      <formula>"mref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+      <formula>"xref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+      <formula>"mref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C69">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+      <formula>"xref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C69">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+      <formula>"mref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B76">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+      <formula>"xref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B76">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+      <formula>"mref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B77">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+      <formula>"xref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B77">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>"mref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B78:B87">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"xref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B78:B87">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"mref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91:C93">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"xref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91:C93">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4331,7 +6019,7 @@
   <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:A302"/>
   <sheetViews>
-    <sheetView topLeftCell="A209" workbookViewId="0">
+    <sheetView topLeftCell="A266" workbookViewId="0">
       <selection activeCell="A224" sqref="A224:XFD224"/>
     </sheetView>
   </sheetViews>
@@ -4342,1512 +6030,1512 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -5873,83 +7561,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
-        <v>25</v>
+      <c r="A1" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="5" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="5" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="5" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="3" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="5" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="3" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="3" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="5" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="3" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="5" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="3" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="5" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="3" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="5" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="5" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="3" t="s">
         <v>342</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="5" t="s">
-        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/molgenis-model-registry/src/test/resources/DAS-MODELv1.6.xlsx
+++ b/molgenis-model-registry/src/test/resources/DAS-MODELv1.6.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="6300" yWindow="1100" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="6" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="attributes" sheetId="3" r:id="rId3"/>
     <sheet name="authority" sheetId="9" r:id="rId4"/>
     <sheet name="type" sheetId="10" r:id="rId5"/>
+    <sheet name="tags" sheetId="12" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="entry_points" localSheetId="2">attributes!$B$29</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="536">
   <si>
     <t>description</t>
   </si>
@@ -1729,6 +1730,51 @@
   </si>
   <si>
     <t>TODO: circular dependencies ref to &lt;PARENT&gt;, &lt;PART&gt; (optional; zero or more per FEATURE) A replacement for the &lt;GROUP&gt; tag, these tags identify other features that are parents or children of this feature within a hierarchy. Each has a single required attribute, id, which refers to a separate &lt;FEATURE&gt; tag. This mechanism means a parent or child feature need only be defined once and may be referred to multiple times. This is preferable to the use of &lt;GROUP&gt; tags, where a parent must be defined separately for every child. It also allows more than two levels of hierarchy to be defined, and gives parent features start/end positions. Note that this approach differs in that a parent-part relationship must be declared in both features. That is, all parents must include references to all of their parts using &lt;PART&gt; tags, and all parts must include references to all of their parents using &lt;PARENT&gt; tags.</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>objectIRI</t>
+  </si>
+  <si>
+    <t>relationLabel</t>
+  </si>
+  <si>
+    <t>codeSystem</t>
+  </si>
+  <si>
+    <t>relationIRI</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>http://molgenis.org/biobankconnect/link</t>
+  </si>
+  <si>
+    <t>das_doc</t>
+  </si>
+  <si>
+    <t>http://www.biodas.org/wiki/Main_Page</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>das_pub1</t>
+  </si>
+  <si>
+    <t>http://www.biomedcentral.com/1471-2105/2/7</t>
+  </si>
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>das_doc,das_pub1</t>
   </si>
 </sst>
 </file>
@@ -1807,7 +1853,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="398">
+  <cellStyleXfs count="418">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2205,6 +2251,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
@@ -2215,7 +2281,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="398">
+  <cellStyles count="418">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2482,6 +2548,16 @@
     <cellStyle name="Followed Hyperlink" xfId="395" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="417" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2613,6 +2689,16 @@
     <cellStyle name="Hyperlink" xfId="306" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="308" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="310" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="398" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="400" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="402" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="404" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="406" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="408" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="410" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="412" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="414" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="416" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="42">
@@ -3364,19 +3450,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.1640625" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3389,8 +3478,11 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -3400,8 +3492,11 @@
       <c r="D2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>361</v>
       </c>
@@ -3415,7 +3510,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -3429,7 +3524,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>397</v>
       </c>
@@ -3443,7 +3538,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>418</v>
       </c>
@@ -3457,7 +3552,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>426</v>
       </c>
@@ -3471,7 +3566,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>443</v>
       </c>
@@ -3836,7 +3931,7 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
     </sheetView>
@@ -7649,4 +7744,88 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D3" t="s">
+        <v>534</v>
+      </c>
+      <c r="E3" t="s">
+        <v>526</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/molgenis-model-registry/src/test/resources/DAS-MODELv1.6.xlsx
+++ b/molgenis-model-registry/src/test/resources/DAS-MODELv1.6.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="6300" yWindow="1100" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="5"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="539">
   <si>
     <t>description</t>
   </si>
@@ -1776,12 +1776,21 @@
   <si>
     <t>das_doc,das_pub1</t>
   </si>
+  <si>
+    <t>http://www.biosharing.org/bsg-000287</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>das_biosharing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1835,6 +1844,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <outline/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1853,7 +1869,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="418">
+  <cellStyleXfs count="420">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2272,16 +2288,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="418">
+  <cellStyles count="420">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2558,6 +2577,7 @@
     <cellStyle name="Followed Hyperlink" xfId="413" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="415" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="419" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2699,6 +2719,7 @@
     <cellStyle name="Hyperlink" xfId="412" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="414" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="416" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="418" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="42">
@@ -7748,10 +7769,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7819,6 +7840,29 @@
         <v>527</v>
       </c>
     </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>538</v>
+      </c>
+      <c r="B4" t="s">
+        <v>536</v>
+      </c>
+      <c r="C4" t="s">
+        <v>536</v>
+      </c>
+      <c r="D4" t="s">
+        <v>537</v>
+      </c>
+      <c r="E4" t="s">
+        <v>526</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17">
+      <c r="A5" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/molgenis-model-registry/src/test/resources/DAS-MODELv1.6.xlsx
+++ b/molgenis-model-registry/src/test/resources/DAS-MODELv1.6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="1100" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="6300" yWindow="1100" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="6" r:id="rId1"/>
@@ -1774,9 +1774,6 @@
     <t>Publication</t>
   </si>
   <si>
-    <t>das_doc,das_pub1</t>
-  </si>
-  <si>
     <t>http://www.biosharing.org/bsg-000287</t>
   </si>
   <si>
@@ -1784,13 +1781,16 @@
   </si>
   <si>
     <t>das_biosharing</t>
+  </si>
+  <si>
+    <t>das_doc,das_pub1,das_biosharing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1844,13 +1844,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <outline/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1869,7 +1862,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="420">
+  <cellStyleXfs count="422">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2290,17 +2283,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="420">
+  <cellStyles count="422">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2578,6 +2572,7 @@
     <cellStyle name="Followed Hyperlink" xfId="415" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="417" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="421" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2720,6 +2715,7 @@
     <cellStyle name="Hyperlink" xfId="414" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="416" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="418" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="420" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="42">
@@ -3473,8 +3469,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3483,7 +3479,7 @@
     <col min="2" max="2" width="34.6640625" customWidth="1"/>
     <col min="3" max="3" width="16.1640625" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3514,7 +3510,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6135,8 +6131,8 @@
   <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:A302"/>
   <sheetViews>
-    <sheetView topLeftCell="A266" workbookViewId="0">
-      <selection activeCell="A224" sqref="A224:XFD224"/>
+    <sheetView topLeftCell="A289" workbookViewId="0">
+      <selection activeCell="A303" sqref="A303:XFD303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7769,10 +7765,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7842,16 +7838,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B4" t="s">
+        <v>535</v>
+      </c>
+      <c r="C4" t="s">
+        <v>535</v>
+      </c>
+      <c r="D4" t="s">
         <v>536</v>
-      </c>
-      <c r="C4" t="s">
-        <v>536</v>
-      </c>
-      <c r="D4" t="s">
-        <v>537</v>
       </c>
       <c r="E4" t="s">
         <v>526</v>
@@ -7859,9 +7855,6 @@
       <c r="F4" s="1" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="17">
-      <c r="A5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/molgenis-model-registry/src/test/resources/DAS-MODELv1.6.xlsx
+++ b/molgenis-model-registry/src/test/resources/DAS-MODELv1.6.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="1100" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="31980" windowHeight="17320" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="6" r:id="rId1"/>
     <sheet name="entities" sheetId="11" r:id="rId2"/>
     <sheet name="attributes" sheetId="3" r:id="rId3"/>
-    <sheet name="authority" sheetId="9" r:id="rId4"/>
-    <sheet name="type" sheetId="10" r:id="rId5"/>
+    <sheet name="das_dasregistry_authority" sheetId="9" r:id="rId4"/>
+    <sheet name="das_dasregistry_type" sheetId="10" r:id="rId5"/>
     <sheet name="tags" sheetId="12" r:id="rId6"/>
   </sheets>
   <definedNames>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="571">
   <si>
     <t>description</t>
   </si>
@@ -1111,9 +1111,6 @@
   </si>
   <si>
     <t>prop</t>
-  </si>
-  <si>
-    <t>dasregistry</t>
   </si>
   <si>
     <t>query_uri</t>
@@ -1784,6 +1781,105 @@
   </si>
   <si>
     <t>das_doc,das_pub1,das_biosharing</t>
+  </si>
+  <si>
+    <t>das_dasregistry</t>
+  </si>
+  <si>
+    <t>das_sources</t>
+  </si>
+  <si>
+    <t>das_dasep</t>
+  </si>
+  <si>
+    <t>das_dassequence</t>
+  </si>
+  <si>
+    <t>das_dastypes</t>
+  </si>
+  <si>
+    <t>das_dasgff</t>
+  </si>
+  <si>
+    <t>das_dasregistry_authority</t>
+  </si>
+  <si>
+    <t>das_dasregistry_type</t>
+  </si>
+  <si>
+    <t>das_sources_source</t>
+  </si>
+  <si>
+    <t>das_sources_sources</t>
+  </si>
+  <si>
+    <t>das_sources_maintainer</t>
+  </si>
+  <si>
+    <t>das_sources_capability</t>
+  </si>
+  <si>
+    <t>das_sources_prop</t>
+  </si>
+  <si>
+    <t>das_sources_version</t>
+  </si>
+  <si>
+    <t>das_sources_coordinates</t>
+  </si>
+  <si>
+    <t>das_dasep_entry_points</t>
+  </si>
+  <si>
+    <t>das_dasep_dasep</t>
+  </si>
+  <si>
+    <t>das_dastypes_segment</t>
+  </si>
+  <si>
+    <t>das_dassequence_dassequence</t>
+  </si>
+  <si>
+    <t>das_dassequence_sequence</t>
+  </si>
+  <si>
+    <t>das_dastypes_dastypes</t>
+  </si>
+  <si>
+    <t>das_dastypes_gff</t>
+  </si>
+  <si>
+    <t>das_dasgff_dasgff</t>
+  </si>
+  <si>
+    <t>das_dasgff_gff2</t>
+  </si>
+  <si>
+    <t>das_dasgff_gff2segment</t>
+  </si>
+  <si>
+    <t>das_dasgff_featuretype</t>
+  </si>
+  <si>
+    <t>das_dasgff_method</t>
+  </si>
+  <si>
+    <t>das_dasgff_target</t>
+  </si>
+  <si>
+    <t>das_dasgff_parent</t>
+  </si>
+  <si>
+    <t>das_dasgff_part</t>
+  </si>
+  <si>
+    <t>das_dastypes_segmenttype</t>
+  </si>
+  <si>
+    <t>das_dasgff_feature</t>
+  </si>
+  <si>
+    <t>das_dasep_segment</t>
   </si>
 </sst>
 </file>
@@ -1862,7 +1958,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="422">
+  <cellStyleXfs count="500">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2260,6 +2356,84 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2294,7 +2468,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="422">
+  <cellStyles count="500">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2573,6 +2747,45 @@
     <cellStyle name="Followed Hyperlink" xfId="417" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="419" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="431" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="433" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="435" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="437" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="439" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="441" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="449" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="469" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="471" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="473" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="475" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="477" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="479" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="481" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="483" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="485" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="487" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="489" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="491" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="493" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="495" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="497" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="499" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2716,9 +2929,248 @@
     <cellStyle name="Hyperlink" xfId="416" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="418" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="420" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="422" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="424" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="426" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="428" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="430" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="432" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="434" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="436" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="438" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="440" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="442" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="444" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="446" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="448" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="450" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="452" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="454" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="456" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="458" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="460" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="462" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="464" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="466" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="468" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="470" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="472" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="474" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="476" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="478" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="480" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="482" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="484" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="486" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="488" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="490" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="492" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="494" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="496" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="498" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="62">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3469,16 +3921,16 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3496,7 +3948,7 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3504,97 +3956,97 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>361</v>
+        <v>538</v>
       </c>
       <c r="B3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>539</v>
       </c>
       <c r="B4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>397</v>
+        <v>540</v>
       </c>
       <c r="B5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>418</v>
+        <v>541</v>
       </c>
       <c r="B6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>426</v>
+        <v>542</v>
       </c>
       <c r="B7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>443</v>
+        <v>543</v>
       </c>
       <c r="B8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -3613,12 +4065,13 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3640,7 +4093,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>361</v>
+        <v>538</v>
       </c>
       <c r="C2" t="s">
         <v>344</v>
@@ -3651,7 +4104,7 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>361</v>
+        <v>538</v>
       </c>
       <c r="C3" t="s">
         <v>345</v>
@@ -3662,10 +4115,10 @@
         <v>351</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>539</v>
       </c>
       <c r="C4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3673,10 +4126,10 @@
         <v>360</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>539</v>
       </c>
       <c r="C5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3684,10 +4137,10 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>539</v>
       </c>
       <c r="C6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3695,10 +4148,10 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>539</v>
       </c>
       <c r="C7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3706,10 +4159,10 @@
         <v>347</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>539</v>
       </c>
       <c r="C8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3717,10 +4170,10 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>539</v>
       </c>
       <c r="C9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3728,186 +4181,186 @@
         <v>353</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>539</v>
       </c>
       <c r="C10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>396</v>
+      </c>
+      <c r="B11" t="s">
+        <v>540</v>
+      </c>
+      <c r="C11" t="s">
         <v>397</v>
-      </c>
-      <c r="B11" t="s">
-        <v>397</v>
-      </c>
-      <c r="C11" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B12" t="s">
-        <v>397</v>
+        <v>540</v>
       </c>
       <c r="C12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B13" t="s">
-        <v>397</v>
+        <v>540</v>
       </c>
       <c r="C13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>417</v>
+      </c>
+      <c r="B14" t="s">
+        <v>541</v>
+      </c>
+      <c r="C14" t="s">
         <v>418</v>
-      </c>
-      <c r="B14" t="s">
-        <v>418</v>
-      </c>
-      <c r="C14" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B15" t="s">
-        <v>418</v>
+        <v>541</v>
       </c>
       <c r="C15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B16" t="s">
-        <v>426</v>
+        <v>542</v>
       </c>
       <c r="C16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B17" t="s">
-        <v>426</v>
+        <v>542</v>
       </c>
       <c r="C17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B18" t="s">
-        <v>426</v>
+        <v>542</v>
       </c>
       <c r="C18" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B19" t="s">
-        <v>426</v>
+        <v>542</v>
       </c>
       <c r="C19" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B20" t="s">
+        <v>543</v>
+      </c>
+      <c r="C20" t="s">
         <v>443</v>
-      </c>
-      <c r="B20" t="s">
-        <v>443</v>
-      </c>
-      <c r="C20" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B21" t="s">
-        <v>443</v>
+        <v>543</v>
       </c>
       <c r="C21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B22" t="s">
-        <v>443</v>
+        <v>543</v>
       </c>
       <c r="C22" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>445</v>
+      </c>
+      <c r="B23" t="s">
+        <v>543</v>
+      </c>
+      <c r="C23" t="s">
         <v>446</v>
-      </c>
-      <c r="B23" t="s">
-        <v>443</v>
-      </c>
-      <c r="C23" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B24" t="s">
-        <v>443</v>
+        <v>543</v>
       </c>
       <c r="C24" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B25" t="s">
-        <v>443</v>
+        <v>543</v>
       </c>
       <c r="C25" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B26" t="s">
-        <v>443</v>
+        <v>543</v>
       </c>
       <c r="C26" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3915,21 +4368,21 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>443</v>
+        <v>543</v>
       </c>
       <c r="C27" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>500</v>
+      </c>
+      <c r="B28" t="s">
+        <v>543</v>
+      </c>
+      <c r="C28" t="s">
         <v>501</v>
-      </c>
-      <c r="B28" t="s">
-        <v>443</v>
-      </c>
-      <c r="C28" t="s">
-        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -3948,15 +4401,16 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -4000,7 +4454,7 @@
         <v>16</v>
       </c>
       <c r="N1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -4008,7 +4462,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>544</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -4028,7 +4482,7 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>545</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -4045,10 +4499,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>547</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -4060,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -4068,19 +4522,19 @@
         <v>347</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>547</v>
       </c>
       <c r="C5" t="s">
         <v>359</v>
       </c>
       <c r="D5" t="s">
-        <v>347</v>
+        <v>546</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -4088,7 +4542,7 @@
         <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>347</v>
+        <v>546</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -4100,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -4108,7 +4562,7 @@
         <v>349</v>
       </c>
       <c r="B7" t="s">
-        <v>347</v>
+        <v>546</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -4117,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -4125,7 +4579,7 @@
         <v>350</v>
       </c>
       <c r="B8" t="s">
-        <v>347</v>
+        <v>546</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -4134,7 +4588,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -4142,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>347</v>
+        <v>546</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -4151,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -4159,19 +4613,19 @@
         <v>351</v>
       </c>
       <c r="B10" t="s">
-        <v>347</v>
+        <v>546</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>351</v>
+        <v>548</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -4179,19 +4633,19 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>347</v>
+        <v>546</v>
       </c>
       <c r="C11" t="s">
         <v>359</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>551</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -4199,7 +4653,7 @@
         <v>352</v>
       </c>
       <c r="B12" t="s">
-        <v>351</v>
+        <v>548</v>
       </c>
       <c r="C12" t="s">
         <v>352</v>
@@ -4211,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4219,7 +4673,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>549</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -4228,15 +4682,15 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>549</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -4248,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -4256,7 +4710,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>360</v>
+        <v>550</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -4273,10 +4727,10 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B16" t="s">
-        <v>360</v>
+        <v>550</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -4285,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4293,7 +4747,7 @@
         <v>348</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>551</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -4305,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4313,7 +4767,7 @@
         <v>357</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>551</v>
       </c>
       <c r="C18" t="s">
         <v>358</v>
@@ -4322,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4330,19 +4784,19 @@
         <v>353</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>551</v>
       </c>
       <c r="C19" t="s">
         <v>359</v>
       </c>
       <c r="D19" t="s">
-        <v>353</v>
+        <v>552</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4350,19 +4804,19 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>551</v>
       </c>
       <c r="C20" t="s">
         <v>359</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>549</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4370,19 +4824,19 @@
         <v>360</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>551</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>360</v>
+        <v>550</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4390,7 +4844,7 @@
         <v>348</v>
       </c>
       <c r="B22" t="s">
-        <v>353</v>
+        <v>552</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
@@ -4402,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4410,19 +4864,19 @@
         <v>347</v>
       </c>
       <c r="B23" t="s">
-        <v>353</v>
+        <v>552</v>
       </c>
       <c r="C23" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>545</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4430,19 +4884,19 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>353</v>
+        <v>552</v>
       </c>
       <c r="C24" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>544</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4450,7 +4904,7 @@
         <v>354</v>
       </c>
       <c r="B25" t="s">
-        <v>353</v>
+        <v>552</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
@@ -4459,7 +4913,7 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -4467,7 +4921,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>353</v>
+        <v>552</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
@@ -4476,7 +4930,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4484,7 +4938,7 @@
         <v>355</v>
       </c>
       <c r="B27" t="s">
-        <v>353</v>
+        <v>552</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
@@ -4493,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -4501,7 +4955,7 @@
         <v>356</v>
       </c>
       <c r="B28" t="s">
-        <v>353</v>
+        <v>552</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
@@ -4510,15 +4964,15 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B29" t="s">
-        <v>396</v>
+        <v>553</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
@@ -4530,15 +4984,15 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B30" t="s">
-        <v>396</v>
+        <v>553</v>
       </c>
       <c r="C30" t="s">
         <v>18</v>
@@ -4547,15 +5001,15 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B31" t="s">
-        <v>396</v>
+        <v>553</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -4564,15 +5018,15 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B32" t="s">
-        <v>396</v>
+        <v>553</v>
       </c>
       <c r="C32" t="s">
         <v>18</v>
@@ -4581,35 +5035,35 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B33" t="s">
-        <v>396</v>
+        <v>553</v>
       </c>
       <c r="C33" t="s">
         <v>359</v>
       </c>
       <c r="D33" t="s">
+        <v>555</v>
+      </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
         <v>409</v>
-      </c>
-      <c r="F33" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B34" t="s">
-        <v>397</v>
+        <v>554</v>
       </c>
       <c r="C34" t="s">
         <v>18</v>
@@ -4621,35 +5075,35 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B35" t="s">
-        <v>397</v>
+        <v>554</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>396</v>
+        <v>553</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B36" t="s">
-        <v>409</v>
+        <v>555</v>
       </c>
       <c r="C36" t="s">
         <v>18</v>
@@ -4661,15 +5115,15 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B37" t="s">
-        <v>409</v>
+        <v>555</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
@@ -4678,15 +5132,15 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B38" t="s">
-        <v>409</v>
+        <v>555</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
@@ -4695,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -4703,7 +5157,7 @@
         <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>409</v>
+        <v>555</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
@@ -4712,15 +5166,15 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B40" t="s">
-        <v>409</v>
+        <v>555</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
@@ -4729,15 +5183,15 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B41" t="s">
-        <v>409</v>
+        <v>555</v>
       </c>
       <c r="C41" t="s">
         <v>18</v>
@@ -4746,7 +5200,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -4754,24 +5208,24 @@
         <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>409</v>
+        <v>555</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>24</v>
+        <v>545</v>
       </c>
       <c r="G42" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B43" t="s">
-        <v>409</v>
+        <v>555</v>
       </c>
       <c r="C43" t="s">
         <v>18</v>
@@ -4780,15 +5234,15 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B44" t="s">
-        <v>418</v>
+        <v>556</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
@@ -4800,35 +5254,35 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B45" t="s">
-        <v>418</v>
+        <v>556</v>
       </c>
       <c r="C45" t="s">
         <v>359</v>
       </c>
       <c r="D45" t="s">
-        <v>421</v>
+        <v>557</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B46" t="s">
-        <v>421</v>
+        <v>557</v>
       </c>
       <c r="C46" t="s">
         <v>18</v>
@@ -4840,15 +5294,15 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B47" t="s">
-        <v>421</v>
+        <v>557</v>
       </c>
       <c r="C47" t="s">
         <v>18</v>
@@ -4857,15 +5311,15 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B48" t="s">
-        <v>421</v>
+        <v>557</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
@@ -4874,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -4882,7 +5336,7 @@
         <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>421</v>
+        <v>557</v>
       </c>
       <c r="C49" t="s">
         <v>18</v>
@@ -4891,7 +5345,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4899,7 +5353,7 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>421</v>
+        <v>557</v>
       </c>
       <c r="C50" t="s">
         <v>18</v>
@@ -4908,15 +5362,15 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B51" t="s">
-        <v>421</v>
+        <v>557</v>
       </c>
       <c r="C51" t="s">
         <v>18</v>
@@ -4925,15 +5379,15 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B52" t="s">
-        <v>426</v>
+        <v>558</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
@@ -4945,35 +5399,35 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B53" t="s">
-        <v>426</v>
+        <v>558</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>427</v>
+        <v>559</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B54" t="s">
-        <v>427</v>
+        <v>559</v>
       </c>
       <c r="C54" t="s">
         <v>17</v>
@@ -4985,52 +5439,55 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B55" t="s">
-        <v>427</v>
+        <v>559</v>
       </c>
       <c r="C55" t="s">
         <v>359</v>
       </c>
       <c r="D55" t="s">
-        <v>409</v>
+        <v>555</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B56" t="s">
-        <v>409</v>
+        <v>570</v>
       </c>
       <c r="C56" t="s">
         <v>18</v>
       </c>
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B57" t="s">
-        <v>409</v>
+        <v>570</v>
       </c>
       <c r="C57" t="s">
         <v>18</v>
@@ -5039,15 +5496,15 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B58" t="s">
-        <v>409</v>
+        <v>570</v>
       </c>
       <c r="C58" t="s">
         <v>18</v>
@@ -5056,7 +5513,7 @@
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -5064,7 +5521,7 @@
         <v>26</v>
       </c>
       <c r="B59" t="s">
-        <v>409</v>
+        <v>570</v>
       </c>
       <c r="C59" t="s">
         <v>18</v>
@@ -5073,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -5081,7 +5538,7 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>409</v>
+        <v>570</v>
       </c>
       <c r="C60" t="s">
         <v>18</v>
@@ -5090,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I60" t="b">
         <v>1</v>
@@ -5101,30 +5558,30 @@
         <v>24</v>
       </c>
       <c r="B61" t="s">
-        <v>409</v>
+        <v>570</v>
       </c>
       <c r="C61" t="s">
         <v>359</v>
       </c>
       <c r="D61" t="s">
-        <v>516</v>
+        <v>568</v>
       </c>
       <c r="F61" t="b">
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B62" t="s">
-        <v>516</v>
+        <v>568</v>
       </c>
       <c r="C62" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E62" t="b">
         <v>1</v>
@@ -5133,66 +5590,66 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B63" t="s">
-        <v>516</v>
+        <v>568</v>
       </c>
       <c r="C63" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F63" t="b">
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
+        <v>435</v>
+      </c>
+      <c r="B64" t="s">
+        <v>568</v>
+      </c>
+      <c r="C64" t="s">
+        <v>433</v>
+      </c>
+      <c r="F64" t="b">
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
         <v>436</v>
-      </c>
-      <c r="B64" t="s">
-        <v>516</v>
-      </c>
-      <c r="C64" t="s">
-        <v>434</v>
-      </c>
-      <c r="F64" t="b">
-        <v>1</v>
-      </c>
-      <c r="G64" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
+        <v>437</v>
+      </c>
+      <c r="B65" t="s">
+        <v>568</v>
+      </c>
+      <c r="C65" t="s">
+        <v>433</v>
+      </c>
+      <c r="F65" t="b">
+        <v>1</v>
+      </c>
+      <c r="G65" t="s">
         <v>438</v>
-      </c>
-      <c r="B65" t="s">
-        <v>516</v>
-      </c>
-      <c r="C65" t="s">
-        <v>434</v>
-      </c>
-      <c r="F65" t="b">
-        <v>1</v>
-      </c>
-      <c r="G65" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B66" t="s">
-        <v>443</v>
+        <v>560</v>
       </c>
       <c r="C66" t="s">
         <v>18</v>
@@ -5204,35 +5661,35 @@
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B67" t="s">
-        <v>443</v>
+        <v>560</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>517</v>
+        <v>561</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B68" t="s">
-        <v>517</v>
+        <v>561</v>
       </c>
       <c r="C68" t="s">
         <v>17</v>
@@ -5244,35 +5701,35 @@
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B69" t="s">
-        <v>517</v>
+        <v>561</v>
       </c>
       <c r="C69" t="s">
         <v>359</v>
       </c>
       <c r="D69" t="s">
-        <v>518</v>
+        <v>562</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B70" t="s">
-        <v>518</v>
+        <v>562</v>
       </c>
       <c r="C70" t="s">
         <v>18</v>
@@ -5284,15 +5741,15 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B71" t="s">
-        <v>518</v>
+        <v>562</v>
       </c>
       <c r="C71" t="s">
         <v>18</v>
@@ -5301,15 +5758,15 @@
         <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B72" t="s">
-        <v>518</v>
+        <v>562</v>
       </c>
       <c r="C72" t="s">
         <v>18</v>
@@ -5318,7 +5775,7 @@
         <v>1</v>
       </c>
       <c r="G72" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -5326,7 +5783,7 @@
         <v>26</v>
       </c>
       <c r="B73" t="s">
-        <v>518</v>
+        <v>562</v>
       </c>
       <c r="C73" t="s">
         <v>18</v>
@@ -5335,7 +5792,7 @@
         <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -5343,7 +5800,7 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>518</v>
+        <v>562</v>
       </c>
       <c r="C74" t="s">
         <v>18</v>
@@ -5352,7 +5809,7 @@
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I74" t="b">
         <v>1</v>
@@ -5360,30 +5817,30 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>446</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>518</v>
+        <v>445</v>
+      </c>
+      <c r="B75" t="s">
+        <v>562</v>
       </c>
       <c r="C75" t="s">
         <v>359</v>
       </c>
       <c r="D75" t="s">
-        <v>446</v>
+        <v>569</v>
       </c>
       <c r="F75" t="b">
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B76" t="s">
-        <v>446</v>
+        <v>569</v>
       </c>
       <c r="C76" t="s">
         <v>18</v>
@@ -5395,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -5403,13 +5860,13 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>446</v>
+        <v>569</v>
       </c>
       <c r="F77" t="b">
         <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -5417,64 +5874,64 @@
         <v>24</v>
       </c>
       <c r="B78" t="s">
-        <v>446</v>
+        <v>569</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>519</v>
+        <v>563</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B79" t="s">
-        <v>446</v>
+        <v>569</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>456</v>
+        <v>564</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B80" t="s">
-        <v>446</v>
+        <v>569</v>
       </c>
       <c r="C80" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F80" t="b">
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B81" t="s">
-        <v>446</v>
+        <v>569</v>
       </c>
       <c r="C81" t="s">
         <v>18</v>
@@ -5483,72 +5940,72 @@
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B82" t="s">
-        <v>446</v>
+        <v>569</v>
       </c>
       <c r="C82" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F82" t="b">
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B83" t="s">
-        <v>446</v>
+        <v>569</v>
       </c>
       <c r="C83" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F83" t="b">
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N83" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B84" t="s">
-        <v>446</v>
+        <v>569</v>
       </c>
       <c r="C84" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F84" t="b">
         <v>1</v>
       </c>
       <c r="G84" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N84" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B85" t="s">
-        <v>446</v>
+        <v>569</v>
       </c>
       <c r="C85" t="s">
         <v>18</v>
@@ -5557,15 +6014,15 @@
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B86" t="s">
-        <v>446</v>
+        <v>569</v>
       </c>
       <c r="C86" t="s">
         <v>17</v>
@@ -5574,35 +6031,35 @@
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B87" t="s">
-        <v>446</v>
+        <v>569</v>
       </c>
       <c r="C87" t="s">
         <v>359</v>
       </c>
       <c r="D87" t="s">
-        <v>472</v>
+        <v>565</v>
       </c>
       <c r="F87" t="b">
         <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B88" t="s">
-        <v>519</v>
+        <v>563</v>
       </c>
       <c r="C88" t="s">
         <v>18</v>
@@ -5614,15 +6071,15 @@
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B89" t="s">
-        <v>519</v>
+        <v>563</v>
       </c>
       <c r="C89" t="s">
         <v>18</v>
@@ -5631,15 +6088,15 @@
         <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B90" t="s">
-        <v>519</v>
+        <v>563</v>
       </c>
       <c r="C90" t="s">
         <v>18</v>
@@ -5648,15 +6105,15 @@
         <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B91" t="s">
-        <v>519</v>
+        <v>563</v>
       </c>
       <c r="C91" t="s">
         <v>18</v>
@@ -5665,15 +6122,15 @@
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B92" t="s">
-        <v>519</v>
+        <v>563</v>
       </c>
       <c r="C92" t="s">
         <v>18</v>
@@ -5682,15 +6139,15 @@
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B93" t="s">
-        <v>519</v>
+        <v>563</v>
       </c>
       <c r="C93" t="s">
         <v>18</v>
@@ -5699,15 +6156,15 @@
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B94" t="s">
-        <v>519</v>
+        <v>563</v>
       </c>
       <c r="C94" t="s">
         <v>18</v>
@@ -5716,7 +6173,7 @@
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I94" t="b">
         <v>1</v>
@@ -5724,10 +6181,10 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B95" t="s">
-        <v>456</v>
+        <v>564</v>
       </c>
       <c r="C95" t="s">
         <v>18</v>
@@ -5739,15 +6196,15 @@
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B96" t="s">
-        <v>456</v>
+        <v>564</v>
       </c>
       <c r="C96" t="s">
         <v>18</v>
@@ -5756,15 +6213,15 @@
         <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B97" t="s">
-        <v>456</v>
+        <v>564</v>
       </c>
       <c r="C97" t="s">
         <v>18</v>
@@ -5773,15 +6230,15 @@
         <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B98" t="s">
-        <v>472</v>
+        <v>565</v>
       </c>
       <c r="C98" t="s">
         <v>18</v>
@@ -5793,15 +6250,15 @@
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B99" t="s">
-        <v>472</v>
+        <v>565</v>
       </c>
       <c r="C99" t="s">
         <v>18</v>
@@ -5810,15 +6267,15 @@
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B100" t="s">
-        <v>472</v>
+        <v>565</v>
       </c>
       <c r="C100" t="s">
         <v>18</v>
@@ -5827,18 +6284,18 @@
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B101" t="s">
-        <v>19</v>
+        <v>566</v>
       </c>
       <c r="C101" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E101" t="b">
         <v>1</v>
@@ -5847,15 +6304,15 @@
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B102" t="s">
-        <v>19</v>
+        <v>566</v>
       </c>
       <c r="C102" t="s">
         <v>18</v>
@@ -5864,15 +6321,15 @@
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B103" t="s">
-        <v>501</v>
+        <v>567</v>
       </c>
       <c r="C103" t="s">
         <v>18</v>
@@ -5884,235 +6341,255 @@
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B104" t="s">
-        <v>501</v>
+        <v>567</v>
       </c>
       <c r="C104" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F104" t="b">
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="C1 C3:C5 C7 D5 A27:H27 E24:H24 A13:H15 A29:A32 G29 C29:C32 A25:E26 G25:H26 A28:E28 G28:H28 B34:B35 C36:C67 D75 C70:C90 C94:C1048576">
-    <cfRule type="cellIs" dxfId="41" priority="48" operator="equal">
+  <conditionalFormatting sqref="C1 C3:C5 C7 A27:H27 E24:H24 A13:H15 A29:A32 G29 C29:C32 A25:E26 G25:H26 A28:E28 G28:H28 B34:B35 C36:C67 C70:C90 C94:C1048576">
+    <cfRule type="cellIs" dxfId="61" priority="56" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="40" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="54" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="39" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="52" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C10">
-    <cfRule type="cellIs" dxfId="38" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="51" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:C20">
-    <cfRule type="cellIs" dxfId="37" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="50" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11 C17:C18">
-    <cfRule type="cellIs" dxfId="36" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="49" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="48" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="34" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="47" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="cellIs" dxfId="33" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="46" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C12 D5 C17:C21 A27:H27 E24:H24 A13:H15 A29:A32 G29 C29:C32 A25:E26 G25:H26 A28:E28 G28:H28 B34:B35 C36:C67 D75 C70:C90 C94:C1048576">
-    <cfRule type="cellIs" dxfId="32" priority="37" operator="equal">
+  <conditionalFormatting sqref="C1:C12 C17:C21 A27:H27 E24:H24 A13:H15 A29:A32 G29 C29:C32 A25:E26 G25:H26 A28:E28 G28:H28 B34:B35 C36:C67 C70:C90 C94:C1048576">
+    <cfRule type="cellIs" dxfId="52" priority="45" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:E23 G22:H23 A24:C24">
-    <cfRule type="cellIs" dxfId="31" priority="35" operator="equal">
+  <conditionalFormatting sqref="A22:E22 G22:H23 A23:C24 E23">
+    <cfRule type="cellIs" dxfId="51" priority="43" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:E23 G22:H23 A24:C24">
-    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
+  <conditionalFormatting sqref="A22:E22 G22:H23 A23:C24 E23">
+    <cfRule type="cellIs" dxfId="50" priority="42" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="41" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="40" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:B16 F16:G16">
-    <cfRule type="cellIs" dxfId="27" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="39" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:B16 F16:G16">
-    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="38" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35 C35 A34 C34:D34 F34:H34">
-    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="37" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35 C35 A34 C34:D34 F34:H34">
-    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="36" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="35" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="34" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="33" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="32" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="31" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="30" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="29" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="28" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52">
-    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="27" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52">
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="26" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="25" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="24" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68">
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68">
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B76">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+  <conditionalFormatting sqref="B76:B87">
+    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B76">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
-      <formula>"mref"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B77">
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
-      <formula>"xref"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B77">
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
-      <formula>"mref"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B78:B87">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
-      <formula>"xref"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B78:B87">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+  <conditionalFormatting sqref="B76:B87">
+    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91:C93">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91:C93">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
+      <formula>"mref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+      <formula>"xref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+      <formula>"mref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+      <formula>"xref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+      <formula>"mref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+      <formula>"xref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>"mref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D75">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"xref"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D75">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7778,82 +8255,82 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>522</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>530</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>531</v>
+      </c>
+      <c r="B3" t="s">
         <v>532</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>532</v>
+      </c>
+      <c r="D3" t="s">
         <v>533</v>
       </c>
-      <c r="C3" t="s">
-        <v>533</v>
-      </c>
-      <c r="D3" t="s">
-        <v>534</v>
-      </c>
       <c r="E3" t="s">
+        <v>525</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B4" t="s">
+        <v>534</v>
+      </c>
+      <c r="C4" t="s">
+        <v>534</v>
+      </c>
+      <c r="D4" t="s">
         <v>535</v>
       </c>
-      <c r="C4" t="s">
-        <v>535</v>
-      </c>
-      <c r="D4" t="s">
-        <v>536</v>
-      </c>
       <c r="E4" t="s">
+        <v>525</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>527</v>
       </c>
     </row>
   </sheetData>

--- a/molgenis-model-registry/src/test/resources/DAS-MODELv1.6.xlsx
+++ b/molgenis-model-registry/src/test/resources/DAS-MODELv1.6.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="31980" windowHeight="17320" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="17325" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="6" r:id="rId1"/>
@@ -1098,9 +1098,6 @@
     <t>testrange</t>
   </si>
   <si>
-    <t>coordinate string</t>
-  </si>
-  <si>
     <t>created</t>
   </si>
   <si>
@@ -1275,9 +1272,6 @@
   </si>
   <si>
     <t>orientation</t>
-  </si>
-  <si>
-    <t>subparts </t>
   </si>
   <si>
     <t>The tag content (optional) provides a human readable for display purposes. If omitted, it is assumed the ID is appropriate for display.</t>
@@ -1881,12 +1875,18 @@
   <si>
     <t>das_dasep_segment</t>
   </si>
+  <si>
+    <t>coordinate_string</t>
+  </si>
+  <si>
+    <t>subparts</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2970,167 +2970,7 @@
     <cellStyle name="Hyperlink" xfId="498" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="46">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3593,6 +3433,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3925,13 +3770,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="38.375" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.875" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3948,7 +3793,7 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3956,97 +3801,97 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B8" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -4068,9 +3913,9 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.625" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4093,7 +3938,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C2" t="s">
         <v>344</v>
@@ -4104,7 +3949,7 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C3" t="s">
         <v>345</v>
@@ -4115,21 +3960,21 @@
         <v>351</v>
       </c>
       <c r="B4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4137,10 +3982,10 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4148,10 +3993,10 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4159,10 +4004,10 @@
         <v>347</v>
       </c>
       <c r="B8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4170,10 +4015,10 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4181,186 +4026,186 @@
         <v>353</v>
       </c>
       <c r="B10" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>395</v>
+      </c>
+      <c r="B11" t="s">
+        <v>538</v>
+      </c>
+      <c r="C11" t="s">
         <v>396</v>
-      </c>
-      <c r="B11" t="s">
-        <v>540</v>
-      </c>
-      <c r="C11" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B12" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B13" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C13" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B14" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C14" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>418</v>
+      </c>
+      <c r="B15" t="s">
+        <v>539</v>
+      </c>
+      <c r="C15" t="s">
         <v>420</v>
-      </c>
-      <c r="B15" t="s">
-        <v>541</v>
-      </c>
-      <c r="C15" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B16" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B17" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B18" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C18" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B19" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C19" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B20" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C20" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B21" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C21" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B22" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C22" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B23" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C23" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B24" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C24" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B25" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C25" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B26" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C26" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4368,21 +4213,21 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C27" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B28" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C28" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -4402,14 +4247,14 @@
   <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.625" customWidth="1"/>
     <col min="4" max="4" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4454,7 +4299,7 @@
         <v>16</v>
       </c>
       <c r="N1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -4462,7 +4307,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -4482,7 +4327,7 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -4499,10 +4344,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -4514,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -4522,19 +4367,19 @@
         <v>347</v>
       </c>
       <c r="B5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -4542,7 +4387,7 @@
         <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -4554,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -4562,7 +4407,7 @@
         <v>349</v>
       </c>
       <c r="B7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -4571,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -4579,7 +4424,7 @@
         <v>350</v>
       </c>
       <c r="B8" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -4588,7 +4433,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -4596,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -4605,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -4613,19 +4458,19 @@
         <v>351</v>
       </c>
       <c r="B10" t="s">
+        <v>544</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>546</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>548</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -4633,19 +4478,19 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D11" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -4653,7 +4498,7 @@
         <v>352</v>
       </c>
       <c r="B12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C12" t="s">
         <v>352</v>
@@ -4665,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4673,7 +4518,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -4682,15 +4527,15 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B14" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -4702,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -4710,7 +4555,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -4727,10 +4572,10 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B16" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -4739,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4747,7 +4592,7 @@
         <v>348</v>
       </c>
       <c r="B17" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -4759,24 +4604,24 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
+        <v>356</v>
+      </c>
+      <c r="B18" t="s">
+        <v>549</v>
+      </c>
+      <c r="C18" t="s">
         <v>357</v>
-      </c>
-      <c r="B18" t="s">
-        <v>551</v>
-      </c>
-      <c r="C18" t="s">
-        <v>358</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4784,19 +4629,19 @@
         <v>353</v>
       </c>
       <c r="B19" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D19" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4804,39 +4649,39 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D20" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B21" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4844,7 +4689,7 @@
         <v>348</v>
       </c>
       <c r="B22" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
@@ -4856,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4864,19 +4709,19 @@
         <v>347</v>
       </c>
       <c r="B23" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C23" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D23" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4884,19 +4729,19 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D24" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4904,7 +4749,7 @@
         <v>354</v>
       </c>
       <c r="B25" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
@@ -4913,7 +4758,7 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -4921,7 +4766,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
@@ -4930,7 +4775,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4938,7 +4783,7 @@
         <v>355</v>
       </c>
       <c r="B27" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
@@ -4947,15 +4792,15 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>356</v>
+        <v>569</v>
       </c>
       <c r="B28" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
@@ -4964,15 +4809,15 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B29" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
@@ -4984,15 +4829,15 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B30" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C30" t="s">
         <v>18</v>
@@ -5001,15 +4846,15 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B31" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -5018,15 +4863,15 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B32" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C32" t="s">
         <v>18</v>
@@ -5035,35 +4880,35 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
+        <v>407</v>
+      </c>
+      <c r="B33" t="s">
+        <v>551</v>
+      </c>
+      <c r="C33" t="s">
+        <v>358</v>
+      </c>
+      <c r="D33" t="s">
+        <v>553</v>
+      </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
         <v>408</v>
-      </c>
-      <c r="B33" t="s">
-        <v>553</v>
-      </c>
-      <c r="C33" t="s">
-        <v>359</v>
-      </c>
-      <c r="D33" t="s">
-        <v>555</v>
-      </c>
-      <c r="F33" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B34" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C34" t="s">
         <v>18</v>
@@ -5075,35 +4920,35 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B35" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B36" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C36" t="s">
         <v>18</v>
@@ -5115,15 +4960,15 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B37" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
@@ -5132,15 +4977,15 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B38" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
@@ -5149,7 +4994,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -5157,7 +5002,7 @@
         <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
@@ -5166,15 +5011,15 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B40" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
@@ -5183,15 +5028,15 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>414</v>
+        <v>570</v>
       </c>
       <c r="B41" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C41" t="s">
         <v>18</v>
@@ -5200,7 +5045,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -5208,24 +5053,24 @@
         <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G42" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B43" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C43" t="s">
         <v>18</v>
@@ -5234,15 +5079,15 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B44" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
@@ -5254,35 +5099,35 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B45" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C45" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D45" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B46" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C46" t="s">
         <v>18</v>
@@ -5294,15 +5139,15 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B47" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C47" t="s">
         <v>18</v>
@@ -5311,15 +5156,15 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B48" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
@@ -5328,7 +5173,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -5336,7 +5181,7 @@
         <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C49" t="s">
         <v>18</v>
@@ -5345,7 +5190,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -5353,7 +5198,7 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C50" t="s">
         <v>18</v>
@@ -5362,15 +5207,15 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B51" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C51" t="s">
         <v>18</v>
@@ -5379,15 +5224,15 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B52" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
@@ -5399,35 +5244,35 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B53" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B54" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C54" t="s">
         <v>17</v>
@@ -5439,35 +5284,35 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B55" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C55" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D55" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B56" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C56" t="s">
         <v>18</v>
@@ -5479,15 +5324,15 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B57" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C57" t="s">
         <v>18</v>
@@ -5496,15 +5341,15 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B58" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C58" t="s">
         <v>18</v>
@@ -5513,7 +5358,7 @@
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -5521,7 +5366,7 @@
         <v>26</v>
       </c>
       <c r="B59" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C59" t="s">
         <v>18</v>
@@ -5530,7 +5375,7 @@
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -5538,7 +5383,7 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C60" t="s">
         <v>18</v>
@@ -5547,7 +5392,7 @@
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="I60" t="b">
         <v>1</v>
@@ -5558,30 +5403,30 @@
         <v>24</v>
       </c>
       <c r="B61" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C61" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D61" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F61" t="b">
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B62" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C62" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E62" t="b">
         <v>1</v>
@@ -5590,66 +5435,66 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B63" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C63" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F63" t="b">
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B64" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C64" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F64" t="b">
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B65" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C65" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F65" t="b">
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B66" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C66" t="s">
         <v>18</v>
@@ -5661,35 +5506,35 @@
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B67" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B68" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C68" t="s">
         <v>17</v>
@@ -5701,35 +5546,35 @@
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B69" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C69" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D69" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B70" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C70" t="s">
         <v>18</v>
@@ -5741,15 +5586,15 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B71" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C71" t="s">
         <v>18</v>
@@ -5758,15 +5603,15 @@
         <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B72" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C72" t="s">
         <v>18</v>
@@ -5775,7 +5620,7 @@
         <v>1</v>
       </c>
       <c r="G72" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -5783,7 +5628,7 @@
         <v>26</v>
       </c>
       <c r="B73" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C73" t="s">
         <v>18</v>
@@ -5792,7 +5637,7 @@
         <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -5800,7 +5645,7 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C74" t="s">
         <v>18</v>
@@ -5809,7 +5654,7 @@
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I74" t="b">
         <v>1</v>
@@ -5817,30 +5662,30 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B75" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C75" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D75" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F75" t="b">
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B76" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C76" t="s">
         <v>18</v>
@@ -5852,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -5860,13 +5705,13 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F77" t="b">
         <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -5874,64 +5719,64 @@
         <v>24</v>
       </c>
       <c r="B78" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B79" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B80" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C80" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F80" t="b">
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B81" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C81" t="s">
         <v>18</v>
@@ -5940,72 +5785,72 @@
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B82" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C82" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F82" t="b">
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B83" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C83" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F83" t="b">
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="N83" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B84" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C84" t="s">
+        <v>458</v>
+      </c>
+      <c r="F84" t="b">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
+        <v>463</v>
+      </c>
+      <c r="N84" t="s">
         <v>460</v>
-      </c>
-      <c r="F84" t="b">
-        <v>1</v>
-      </c>
-      <c r="G84" t="s">
-        <v>465</v>
-      </c>
-      <c r="N84" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B85" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C85" t="s">
         <v>18</v>
@@ -6014,15 +5859,15 @@
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B86" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C86" t="s">
         <v>17</v>
@@ -6031,35 +5876,35 @@
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B87" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C87" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D87" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F87" t="b">
         <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B88" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C88" t="s">
         <v>18</v>
@@ -6071,15 +5916,15 @@
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B89" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C89" t="s">
         <v>18</v>
@@ -6088,15 +5933,15 @@
         <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B90" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C90" t="s">
         <v>18</v>
@@ -6105,15 +5950,15 @@
         <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B91" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C91" t="s">
         <v>18</v>
@@ -6122,15 +5967,15 @@
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" t="s">
-        <v>414</v>
+        <v>570</v>
       </c>
       <c r="B92" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C92" t="s">
         <v>18</v>
@@ -6139,15 +5984,15 @@
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C93" t="s">
         <v>18</v>
@@ -6156,15 +6001,15 @@
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B94" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C94" t="s">
         <v>18</v>
@@ -6173,7 +6018,7 @@
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I94" t="b">
         <v>1</v>
@@ -6181,10 +6026,10 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B95" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C95" t="s">
         <v>18</v>
@@ -6196,15 +6041,15 @@
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B96" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C96" t="s">
         <v>18</v>
@@ -6213,15 +6058,15 @@
         <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B97" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C97" t="s">
         <v>18</v>
@@ -6230,15 +6075,15 @@
         <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B98" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C98" t="s">
         <v>18</v>
@@ -6250,15 +6095,15 @@
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B99" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C99" t="s">
         <v>18</v>
@@ -6267,15 +6112,15 @@
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B100" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C100" t="s">
         <v>18</v>
@@ -6284,18 +6129,18 @@
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B101" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C101" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E101" t="b">
         <v>1</v>
@@ -6304,15 +6149,15 @@
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B102" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C102" t="s">
         <v>18</v>
@@ -6321,15 +6166,15 @@
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B103" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C103" t="s">
         <v>18</v>
@@ -6341,255 +6186,255 @@
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B104" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C104" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F104" t="b">
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="C1 C3:C5 C7 A27:H27 E24:H24 A13:H15 A29:A32 G29 C29:C32 A25:E26 G25:H26 A28:E28 G28:H28 B34:B35 C36:C67 C70:C90 C94:C1048576">
-    <cfRule type="cellIs" dxfId="61" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="56" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="60" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="54" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="59" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="52" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C10">
-    <cfRule type="cellIs" dxfId="58" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="51" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:C20">
-    <cfRule type="cellIs" dxfId="57" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="50" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11 C17:C18">
-    <cfRule type="cellIs" dxfId="56" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="49" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="55" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="48" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="54" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="47" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="cellIs" dxfId="53" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="46" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C12 C17:C21 A27:H27 E24:H24 A13:H15 A29:A32 G29 C29:C32 A25:E26 G25:H26 A28:E28 G28:H28 B34:B35 C36:C67 C70:C90 C94:C1048576">
-    <cfRule type="cellIs" dxfId="52" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="45" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:E22 G22:H23 A23:C24 E23">
-    <cfRule type="cellIs" dxfId="51" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="43" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:E22 G22:H23 A23:C24 E23">
-    <cfRule type="cellIs" dxfId="50" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="42" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="49" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="41" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="48" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="40" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:B16 F16:G16">
-    <cfRule type="cellIs" dxfId="47" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="39" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:B16 F16:G16">
-    <cfRule type="cellIs" dxfId="46" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="38" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35 C35 A34 C34:D34 F34:H34">
-    <cfRule type="cellIs" dxfId="45" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="37" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35 C35 A34 C34:D34 F34:H34">
-    <cfRule type="cellIs" dxfId="44" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="36" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="43" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="35" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="42" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="cellIs" dxfId="41" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="33" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="cellIs" dxfId="40" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="32" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="cellIs" dxfId="39" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="cellIs" dxfId="38" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="37" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="29" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="36" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="28" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52">
-    <cfRule type="cellIs" dxfId="35" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="27" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52">
-    <cfRule type="cellIs" dxfId="34" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="33" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="32" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68">
-    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68">
-    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69">
-    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="21" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69">
-    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:B87">
-    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:B87">
-    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91:C93">
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91:C93">
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6612,9 +6457,9 @@
       <selection activeCell="A303" sqref="A303:XFD303"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -8144,9 +7989,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -8248,89 +8093,89 @@
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>529</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>529</v>
+      </c>
+      <c r="B3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C3" t="s">
+        <v>530</v>
+      </c>
+      <c r="D3" t="s">
         <v>531</v>
       </c>
-      <c r="B3" t="s">
-        <v>532</v>
-      </c>
-      <c r="C3" t="s">
-        <v>532</v>
-      </c>
-      <c r="D3" t="s">
-        <v>533</v>
-      </c>
       <c r="E3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>

--- a/molgenis-model-registry/src/test/resources/DAS-MODELv1.6.xlsx
+++ b/molgenis-model-registry/src/test/resources/DAS-MODELv1.6.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="17325" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="31980" windowHeight="17320" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="6" r:id="rId1"/>
@@ -1098,6 +1098,9 @@
     <t>testrange</t>
   </si>
   <si>
+    <t>coordinate string</t>
+  </si>
+  <si>
     <t>created</t>
   </si>
   <si>
@@ -1272,6 +1275,9 @@
   </si>
   <si>
     <t>orientation</t>
+  </si>
+  <si>
+    <t>subparts </t>
   </si>
   <si>
     <t>The tag content (optional) provides a human readable for display purposes. If omitted, it is assumed the ID is appropriate for display.</t>
@@ -1875,18 +1881,12 @@
   <si>
     <t>das_dasep_segment</t>
   </si>
-  <si>
-    <t>coordinate_string</t>
-  </si>
-  <si>
-    <t>subparts</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2970,7 +2970,167 @@
     <cellStyle name="Hyperlink" xfId="498" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="62">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3433,11 +3593,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -3770,13 +3925,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.625" customWidth="1"/>
-    <col min="2" max="2" width="38.375" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="30.875" customWidth="1"/>
-    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3793,7 +3948,7 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3801,97 +3956,97 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B4" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B5" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B6" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B8" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -3913,9 +4068,9 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="23.625" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3938,7 +4093,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C2" t="s">
         <v>344</v>
@@ -3949,7 +4104,7 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C3" t="s">
         <v>345</v>
@@ -3960,21 +4115,21 @@
         <v>351</v>
       </c>
       <c r="B4" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B5" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3982,10 +4137,10 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3993,10 +4148,10 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4004,10 +4159,10 @@
         <v>347</v>
       </c>
       <c r="B8" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4015,10 +4170,10 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4026,186 +4181,186 @@
         <v>353</v>
       </c>
       <c r="B10" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B11" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C11" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B12" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C12" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B13" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C13" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B14" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C14" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B15" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C15" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B16" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C16" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B17" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C17" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B18" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C18" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B19" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C19" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B20" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C20" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B21" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C21" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B22" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C22" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B23" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C23" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B24" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C24" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B25" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C25" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B26" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C26" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4213,21 +4368,21 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C27" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B28" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C28" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -4247,14 +4402,14 @@
   <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G93" sqref="G93"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.625" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
     <col min="4" max="4" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4299,7 +4454,7 @@
         <v>16</v>
       </c>
       <c r="N1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -4307,7 +4462,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -4327,7 +4482,7 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -4344,10 +4499,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B4" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -4359,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -4367,19 +4522,19 @@
         <v>347</v>
       </c>
       <c r="B5" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D5" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -4387,7 +4542,7 @@
         <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -4399,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -4407,7 +4562,7 @@
         <v>349</v>
       </c>
       <c r="B7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -4416,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -4424,7 +4579,7 @@
         <v>350</v>
       </c>
       <c r="B8" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -4433,7 +4588,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -4441,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -4450,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -4458,19 +4613,19 @@
         <v>351</v>
       </c>
       <c r="B10" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -4478,19 +4633,19 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C11" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D11" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -4498,7 +4653,7 @@
         <v>352</v>
       </c>
       <c r="B12" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C12" t="s">
         <v>352</v>
@@ -4510,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4518,7 +4673,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -4527,15 +4682,15 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B14" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -4547,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -4555,7 +4710,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -4572,10 +4727,10 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B16" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -4584,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4592,7 +4747,7 @@
         <v>348</v>
       </c>
       <c r="B17" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -4604,24 +4759,24 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B18" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C18" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4629,19 +4784,19 @@
         <v>353</v>
       </c>
       <c r="B19" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C19" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D19" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4649,39 +4804,39 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
+        <v>551</v>
+      </c>
+      <c r="C20" t="s">
+        <v>359</v>
+      </c>
+      <c r="D20" t="s">
         <v>549</v>
-      </c>
-      <c r="C20" t="s">
-        <v>358</v>
-      </c>
-      <c r="D20" t="s">
-        <v>547</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B21" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4689,7 +4844,7 @@
         <v>348</v>
       </c>
       <c r="B22" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
@@ -4701,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4709,19 +4864,19 @@
         <v>347</v>
       </c>
       <c r="B23" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C23" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D23" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4729,19 +4884,19 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C24" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D24" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4749,7 +4904,7 @@
         <v>354</v>
       </c>
       <c r="B25" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
@@ -4758,7 +4913,7 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -4766,7 +4921,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
@@ -4775,7 +4930,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4783,7 +4938,7 @@
         <v>355</v>
       </c>
       <c r="B27" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
@@ -4792,15 +4947,15 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>569</v>
+        <v>356</v>
       </c>
       <c r="B28" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
@@ -4809,15 +4964,15 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B29" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
@@ -4829,15 +4984,15 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B30" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C30" t="s">
         <v>18</v>
@@ -4846,15 +5001,15 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B31" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -4863,15 +5018,15 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B32" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C32" t="s">
         <v>18</v>
@@ -4880,35 +5035,35 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B33" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C33" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D33" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F33" t="b">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B34" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C34" t="s">
         <v>18</v>
@@ -4920,35 +5075,35 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B35" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B36" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C36" t="s">
         <v>18</v>
@@ -4960,15 +5115,15 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B37" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
@@ -4977,15 +5132,15 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B38" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
@@ -4994,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -5002,7 +5157,7 @@
         <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
@@ -5011,15 +5166,15 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B40" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
@@ -5028,15 +5183,15 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>570</v>
+        <v>414</v>
       </c>
       <c r="B41" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C41" t="s">
         <v>18</v>
@@ -5045,7 +5200,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -5053,24 +5208,24 @@
         <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G42" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B43" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C43" t="s">
         <v>18</v>
@@ -5079,15 +5234,15 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B44" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
@@ -5099,35 +5254,35 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B45" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C45" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D45" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B46" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C46" t="s">
         <v>18</v>
@@ -5139,15 +5294,15 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B47" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C47" t="s">
         <v>18</v>
@@ -5156,15 +5311,15 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B48" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
@@ -5173,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -5181,7 +5336,7 @@
         <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C49" t="s">
         <v>18</v>
@@ -5190,7 +5345,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -5198,7 +5353,7 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C50" t="s">
         <v>18</v>
@@ -5207,15 +5362,15 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B51" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C51" t="s">
         <v>18</v>
@@ -5224,15 +5379,15 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B52" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
@@ -5244,35 +5399,35 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B53" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B54" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C54" t="s">
         <v>17</v>
@@ -5284,35 +5439,35 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B55" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C55" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D55" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B56" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C56" t="s">
         <v>18</v>
@@ -5324,15 +5479,15 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B57" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C57" t="s">
         <v>18</v>
@@ -5341,15 +5496,15 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B58" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C58" t="s">
         <v>18</v>
@@ -5358,7 +5513,7 @@
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -5366,7 +5521,7 @@
         <v>26</v>
       </c>
       <c r="B59" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C59" t="s">
         <v>18</v>
@@ -5375,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -5383,7 +5538,7 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C60" t="s">
         <v>18</v>
@@ -5392,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="I60" t="b">
         <v>1</v>
@@ -5403,30 +5558,30 @@
         <v>24</v>
       </c>
       <c r="B61" t="s">
+        <v>570</v>
+      </c>
+      <c r="C61" t="s">
+        <v>359</v>
+      </c>
+      <c r="D61" t="s">
         <v>568</v>
       </c>
-      <c r="C61" t="s">
-        <v>358</v>
-      </c>
-      <c r="D61" t="s">
-        <v>566</v>
-      </c>
       <c r="F61" t="b">
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B62" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C62" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E62" t="b">
         <v>1</v>
@@ -5435,66 +5590,66 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B63" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C63" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F63" t="b">
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
+        <v>435</v>
+      </c>
+      <c r="B64" t="s">
+        <v>568</v>
+      </c>
+      <c r="C64" t="s">
         <v>433</v>
       </c>
-      <c r="B64" t="s">
-        <v>566</v>
-      </c>
-      <c r="C64" t="s">
-        <v>431</v>
-      </c>
       <c r="F64" t="b">
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B65" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C65" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F65" t="b">
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B66" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C66" t="s">
         <v>18</v>
@@ -5506,35 +5661,35 @@
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B67" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B68" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C68" t="s">
         <v>17</v>
@@ -5546,35 +5701,35 @@
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B69" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C69" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D69" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B70" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C70" t="s">
         <v>18</v>
@@ -5586,15 +5741,15 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B71" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C71" t="s">
         <v>18</v>
@@ -5603,15 +5758,15 @@
         <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B72" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C72" t="s">
         <v>18</v>
@@ -5620,7 +5775,7 @@
         <v>1</v>
       </c>
       <c r="G72" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -5628,7 +5783,7 @@
         <v>26</v>
       </c>
       <c r="B73" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C73" t="s">
         <v>18</v>
@@ -5637,7 +5792,7 @@
         <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -5645,7 +5800,7 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C74" t="s">
         <v>18</v>
@@ -5654,7 +5809,7 @@
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="I74" t="b">
         <v>1</v>
@@ -5662,30 +5817,30 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B75" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C75" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D75" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F75" t="b">
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B76" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C76" t="s">
         <v>18</v>
@@ -5697,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -5705,13 +5860,13 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F77" t="b">
         <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -5719,64 +5874,64 @@
         <v>24</v>
       </c>
       <c r="B78" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B79" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B80" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C80" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F80" t="b">
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B81" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C81" t="s">
         <v>18</v>
@@ -5785,72 +5940,72 @@
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B82" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C82" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F82" t="b">
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B83" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C83" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F83" t="b">
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="N83" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B84" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C84" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F84" t="b">
         <v>1</v>
       </c>
       <c r="G84" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="N84" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B85" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C85" t="s">
         <v>18</v>
@@ -5859,15 +6014,15 @@
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B86" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C86" t="s">
         <v>17</v>
@@ -5876,35 +6031,35 @@
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B87" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C87" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D87" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F87" t="b">
         <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B88" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C88" t="s">
         <v>18</v>
@@ -5916,15 +6071,15 @@
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B89" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C89" t="s">
         <v>18</v>
@@ -5933,15 +6088,15 @@
         <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B90" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C90" t="s">
         <v>18</v>
@@ -5950,15 +6105,15 @@
         <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B91" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C91" t="s">
         <v>18</v>
@@ -5967,15 +6122,15 @@
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" t="s">
-        <v>570</v>
+        <v>414</v>
       </c>
       <c r="B92" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C92" t="s">
         <v>18</v>
@@ -5984,15 +6139,15 @@
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B93" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C93" t="s">
         <v>18</v>
@@ -6001,15 +6156,15 @@
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B94" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C94" t="s">
         <v>18</v>
@@ -6018,7 +6173,7 @@
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="I94" t="b">
         <v>1</v>
@@ -6026,10 +6181,10 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B95" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C95" t="s">
         <v>18</v>
@@ -6041,15 +6196,15 @@
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B96" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C96" t="s">
         <v>18</v>
@@ -6058,15 +6213,15 @@
         <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B97" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C97" t="s">
         <v>18</v>
@@ -6075,15 +6230,15 @@
         <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B98" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C98" t="s">
         <v>18</v>
@@ -6095,15 +6250,15 @@
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B99" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C99" t="s">
         <v>18</v>
@@ -6112,15 +6267,15 @@
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B100" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C100" t="s">
         <v>18</v>
@@ -6129,18 +6284,18 @@
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B101" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C101" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E101" t="b">
         <v>1</v>
@@ -6149,15 +6304,15 @@
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B102" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C102" t="s">
         <v>18</v>
@@ -6166,15 +6321,15 @@
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B103" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C103" t="s">
         <v>18</v>
@@ -6186,255 +6341,255 @@
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B104" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C104" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F104" t="b">
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="C1 C3:C5 C7 A27:H27 E24:H24 A13:H15 A29:A32 G29 C29:C32 A25:E26 G25:H26 A28:E28 G28:H28 B34:B35 C36:C67 C70:C90 C94:C1048576">
-    <cfRule type="cellIs" dxfId="45" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="56" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="44" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="54" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="43" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="52" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C10">
-    <cfRule type="cellIs" dxfId="42" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="51" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:C20">
-    <cfRule type="cellIs" dxfId="41" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="50" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11 C17:C18">
-    <cfRule type="cellIs" dxfId="40" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="49" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="39" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="48" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="38" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="47" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="cellIs" dxfId="37" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="46" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C12 C17:C21 A27:H27 E24:H24 A13:H15 A29:A32 G29 C29:C32 A25:E26 G25:H26 A28:E28 G28:H28 B34:B35 C36:C67 C70:C90 C94:C1048576">
-    <cfRule type="cellIs" dxfId="36" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="45" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:E22 G22:H23 A23:C24 E23">
-    <cfRule type="cellIs" dxfId="35" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="43" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:E22 G22:H23 A23:C24 E23">
-    <cfRule type="cellIs" dxfId="34" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="42" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="33" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="41" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="32" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="40" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:B16 F16:G16">
-    <cfRule type="cellIs" dxfId="31" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="39" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:B16 F16:G16">
-    <cfRule type="cellIs" dxfId="30" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="38" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35 C35 A34 C34:D34 F34:H34">
-    <cfRule type="cellIs" dxfId="29" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="37" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35 C35 A34 C34:D34 F34:H34">
-    <cfRule type="cellIs" dxfId="28" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="36" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="27" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="35" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="34" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="cellIs" dxfId="25" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="33" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="cellIs" dxfId="24" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="32" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="31" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="30" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="21" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="29" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="20" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="28" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52">
-    <cfRule type="cellIs" dxfId="19" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="27" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52">
-    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="26" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="25" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="24" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68">
-    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68">
-    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69">
-    <cfRule type="cellIs" dxfId="13" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69">
-    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:B87">
-    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:B87">
-    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91:C93">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91:C93">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6457,9 +6612,9 @@
       <selection activeCell="A303" sqref="A303:XFD303"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -7989,9 +8144,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -8093,89 +8248,89 @@
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B3" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C3" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D3" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E3" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>536</v>
+      </c>
+      <c r="B4" t="s">
         <v>534</v>
       </c>
-      <c r="B4" t="s">
-        <v>532</v>
-      </c>
       <c r="C4" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D4" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E4" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>

--- a/molgenis-model-registry/src/test/resources/DAS-MODELv1.6.xlsx
+++ b/molgenis-model-registry/src/test/resources/DAS-MODELv1.6.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="31980" windowHeight="17320" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="17325" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="6" r:id="rId1"/>
@@ -1098,9 +1098,6 @@
     <t>testrange</t>
   </si>
   <si>
-    <t>coordinate string</t>
-  </si>
-  <si>
     <t>created</t>
   </si>
   <si>
@@ -1275,9 +1272,6 @@
   </si>
   <si>
     <t>orientation</t>
-  </si>
-  <si>
-    <t>subparts </t>
   </si>
   <si>
     <t>The tag content (optional) provides a human readable for display purposes. If omitted, it is assumed the ID is appropriate for display.</t>
@@ -1881,12 +1875,18 @@
   <si>
     <t>das_dasep_segment</t>
   </si>
+  <si>
+    <t>coordinate_string</t>
+  </si>
+  <si>
+    <t>subparts</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2970,167 +2970,7 @@
     <cellStyle name="Hyperlink" xfId="498" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="46">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3593,6 +3433,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3925,13 +3770,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="38.375" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.875" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3948,7 +3793,7 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3956,97 +3801,97 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B8" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -4068,9 +3913,9 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.625" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4093,7 +3938,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C2" t="s">
         <v>344</v>
@@ -4104,7 +3949,7 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C3" t="s">
         <v>345</v>
@@ -4115,21 +3960,21 @@
         <v>351</v>
       </c>
       <c r="B4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4137,10 +3982,10 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4148,10 +3993,10 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4159,10 +4004,10 @@
         <v>347</v>
       </c>
       <c r="B8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4170,10 +4015,10 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4181,186 +4026,186 @@
         <v>353</v>
       </c>
       <c r="B10" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>395</v>
+      </c>
+      <c r="B11" t="s">
+        <v>538</v>
+      </c>
+      <c r="C11" t="s">
         <v>396</v>
-      </c>
-      <c r="B11" t="s">
-        <v>540</v>
-      </c>
-      <c r="C11" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B12" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B13" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C13" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B14" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C14" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>418</v>
+      </c>
+      <c r="B15" t="s">
+        <v>539</v>
+      </c>
+      <c r="C15" t="s">
         <v>420</v>
-      </c>
-      <c r="B15" t="s">
-        <v>541</v>
-      </c>
-      <c r="C15" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B16" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B17" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B18" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C18" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B19" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C19" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B20" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C20" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B21" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C21" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B22" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C22" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B23" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C23" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B24" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C24" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B25" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C25" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B26" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C26" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4368,21 +4213,21 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C27" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B28" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C28" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -4402,14 +4247,14 @@
   <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.625" customWidth="1"/>
     <col min="4" max="4" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4454,7 +4299,7 @@
         <v>16</v>
       </c>
       <c r="N1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -4462,7 +4307,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -4482,7 +4327,7 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -4499,10 +4344,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -4514,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -4522,19 +4367,19 @@
         <v>347</v>
       </c>
       <c r="B5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -4542,7 +4387,7 @@
         <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -4554,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -4562,7 +4407,7 @@
         <v>349</v>
       </c>
       <c r="B7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -4571,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -4579,7 +4424,7 @@
         <v>350</v>
       </c>
       <c r="B8" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -4588,7 +4433,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -4596,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -4605,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -4613,19 +4458,19 @@
         <v>351</v>
       </c>
       <c r="B10" t="s">
+        <v>544</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>546</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>548</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -4633,19 +4478,19 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D11" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -4653,7 +4498,7 @@
         <v>352</v>
       </c>
       <c r="B12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C12" t="s">
         <v>352</v>
@@ -4665,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4673,7 +4518,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -4682,15 +4527,15 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B14" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -4702,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -4710,7 +4555,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -4727,10 +4572,10 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B16" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -4739,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4747,7 +4592,7 @@
         <v>348</v>
       </c>
       <c r="B17" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -4759,24 +4604,24 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
+        <v>356</v>
+      </c>
+      <c r="B18" t="s">
+        <v>549</v>
+      </c>
+      <c r="C18" t="s">
         <v>357</v>
-      </c>
-      <c r="B18" t="s">
-        <v>551</v>
-      </c>
-      <c r="C18" t="s">
-        <v>358</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4784,19 +4629,19 @@
         <v>353</v>
       </c>
       <c r="B19" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D19" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4804,39 +4649,39 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D20" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B21" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4844,7 +4689,7 @@
         <v>348</v>
       </c>
       <c r="B22" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
@@ -4856,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4864,19 +4709,19 @@
         <v>347</v>
       </c>
       <c r="B23" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C23" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D23" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4884,19 +4729,19 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D24" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4904,7 +4749,7 @@
         <v>354</v>
       </c>
       <c r="B25" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
@@ -4913,7 +4758,7 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -4921,7 +4766,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
@@ -4930,7 +4775,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4938,7 +4783,7 @@
         <v>355</v>
       </c>
       <c r="B27" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
@@ -4947,15 +4792,15 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>356</v>
+        <v>569</v>
       </c>
       <c r="B28" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
@@ -4964,15 +4809,15 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B29" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
@@ -4984,15 +4829,15 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B30" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C30" t="s">
         <v>18</v>
@@ -5001,15 +4846,15 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B31" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -5018,15 +4863,15 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B32" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C32" t="s">
         <v>18</v>
@@ -5035,35 +4880,35 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
+        <v>407</v>
+      </c>
+      <c r="B33" t="s">
+        <v>551</v>
+      </c>
+      <c r="C33" t="s">
+        <v>358</v>
+      </c>
+      <c r="D33" t="s">
+        <v>553</v>
+      </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
         <v>408</v>
-      </c>
-      <c r="B33" t="s">
-        <v>553</v>
-      </c>
-      <c r="C33" t="s">
-        <v>359</v>
-      </c>
-      <c r="D33" t="s">
-        <v>555</v>
-      </c>
-      <c r="F33" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B34" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C34" t="s">
         <v>18</v>
@@ -5075,35 +4920,35 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B35" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B36" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C36" t="s">
         <v>18</v>
@@ -5115,15 +4960,15 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B37" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
@@ -5132,15 +4977,15 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B38" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
@@ -5149,7 +4994,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -5157,7 +5002,7 @@
         <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
@@ -5166,15 +5011,15 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B40" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
@@ -5183,15 +5028,15 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>414</v>
+        <v>570</v>
       </c>
       <c r="B41" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C41" t="s">
         <v>18</v>
@@ -5200,7 +5045,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -5208,24 +5053,24 @@
         <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G42" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B43" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C43" t="s">
         <v>18</v>
@@ -5234,15 +5079,15 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B44" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
@@ -5254,35 +5099,35 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B45" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C45" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D45" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B46" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C46" t="s">
         <v>18</v>
@@ -5294,15 +5139,15 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B47" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C47" t="s">
         <v>18</v>
@@ -5311,15 +5156,15 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B48" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
@@ -5328,7 +5173,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -5336,7 +5181,7 @@
         <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C49" t="s">
         <v>18</v>
@@ -5345,7 +5190,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -5353,7 +5198,7 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C50" t="s">
         <v>18</v>
@@ -5362,15 +5207,15 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B51" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C51" t="s">
         <v>18</v>
@@ -5379,15 +5224,15 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B52" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
@@ -5399,35 +5244,35 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B53" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B54" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C54" t="s">
         <v>17</v>
@@ -5439,35 +5284,35 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B55" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C55" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D55" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B56" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C56" t="s">
         <v>18</v>
@@ -5479,15 +5324,15 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B57" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C57" t="s">
         <v>18</v>
@@ -5496,15 +5341,15 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B58" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C58" t="s">
         <v>18</v>
@@ -5513,7 +5358,7 @@
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -5521,7 +5366,7 @@
         <v>26</v>
       </c>
       <c r="B59" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C59" t="s">
         <v>18</v>
@@ -5530,7 +5375,7 @@
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -5538,7 +5383,7 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C60" t="s">
         <v>18</v>
@@ -5547,7 +5392,7 @@
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="I60" t="b">
         <v>1</v>
@@ -5558,30 +5403,30 @@
         <v>24</v>
       </c>
       <c r="B61" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C61" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D61" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F61" t="b">
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B62" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C62" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E62" t="b">
         <v>1</v>
@@ -5590,66 +5435,66 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B63" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C63" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F63" t="b">
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B64" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C64" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F64" t="b">
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B65" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C65" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F65" t="b">
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B66" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C66" t="s">
         <v>18</v>
@@ -5661,35 +5506,35 @@
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B67" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B68" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C68" t="s">
         <v>17</v>
@@ -5701,35 +5546,35 @@
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B69" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C69" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D69" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B70" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C70" t="s">
         <v>18</v>
@@ -5741,15 +5586,15 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B71" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C71" t="s">
         <v>18</v>
@@ -5758,15 +5603,15 @@
         <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B72" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C72" t="s">
         <v>18</v>
@@ -5775,7 +5620,7 @@
         <v>1</v>
       </c>
       <c r="G72" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -5783,7 +5628,7 @@
         <v>26</v>
       </c>
       <c r="B73" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C73" t="s">
         <v>18</v>
@@ -5792,7 +5637,7 @@
         <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -5800,7 +5645,7 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C74" t="s">
         <v>18</v>
@@ -5809,7 +5654,7 @@
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I74" t="b">
         <v>1</v>
@@ -5817,30 +5662,30 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B75" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C75" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D75" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F75" t="b">
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B76" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C76" t="s">
         <v>18</v>
@@ -5852,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -5860,13 +5705,13 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F77" t="b">
         <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -5874,64 +5719,64 @@
         <v>24</v>
       </c>
       <c r="B78" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B79" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B80" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C80" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F80" t="b">
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B81" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C81" t="s">
         <v>18</v>
@@ -5940,72 +5785,72 @@
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B82" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C82" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F82" t="b">
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B83" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C83" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F83" t="b">
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="N83" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B84" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C84" t="s">
+        <v>458</v>
+      </c>
+      <c r="F84" t="b">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
+        <v>463</v>
+      </c>
+      <c r="N84" t="s">
         <v>460</v>
-      </c>
-      <c r="F84" t="b">
-        <v>1</v>
-      </c>
-      <c r="G84" t="s">
-        <v>465</v>
-      </c>
-      <c r="N84" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B85" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C85" t="s">
         <v>18</v>
@@ -6014,15 +5859,15 @@
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B86" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C86" t="s">
         <v>17</v>
@@ -6031,35 +5876,35 @@
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B87" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C87" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D87" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F87" t="b">
         <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B88" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C88" t="s">
         <v>18</v>
@@ -6071,15 +5916,15 @@
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B89" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C89" t="s">
         <v>18</v>
@@ -6088,15 +5933,15 @@
         <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B90" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C90" t="s">
         <v>18</v>
@@ -6105,15 +5950,15 @@
         <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B91" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C91" t="s">
         <v>18</v>
@@ -6122,15 +5967,15 @@
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" t="s">
-        <v>414</v>
+        <v>570</v>
       </c>
       <c r="B92" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C92" t="s">
         <v>18</v>
@@ -6139,15 +5984,15 @@
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C93" t="s">
         <v>18</v>
@@ -6156,15 +6001,15 @@
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B94" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C94" t="s">
         <v>18</v>
@@ -6173,7 +6018,7 @@
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I94" t="b">
         <v>1</v>
@@ -6181,10 +6026,10 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B95" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C95" t="s">
         <v>18</v>
@@ -6196,15 +6041,15 @@
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B96" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C96" t="s">
         <v>18</v>
@@ -6213,15 +6058,15 @@
         <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B97" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C97" t="s">
         <v>18</v>
@@ -6230,15 +6075,15 @@
         <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B98" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C98" t="s">
         <v>18</v>
@@ -6250,15 +6095,15 @@
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B99" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C99" t="s">
         <v>18</v>
@@ -6267,15 +6112,15 @@
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B100" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C100" t="s">
         <v>18</v>
@@ -6284,18 +6129,18 @@
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B101" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C101" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E101" t="b">
         <v>1</v>
@@ -6304,15 +6149,15 @@
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B102" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C102" t="s">
         <v>18</v>
@@ -6321,15 +6166,15 @@
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B103" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C103" t="s">
         <v>18</v>
@@ -6341,255 +6186,255 @@
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B104" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C104" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F104" t="b">
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="C1 C3:C5 C7 A27:H27 E24:H24 A13:H15 A29:A32 G29 C29:C32 A25:E26 G25:H26 A28:E28 G28:H28 B34:B35 C36:C67 C70:C90 C94:C1048576">
-    <cfRule type="cellIs" dxfId="61" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="56" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="60" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="54" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="59" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="52" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C10">
-    <cfRule type="cellIs" dxfId="58" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="51" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:C20">
-    <cfRule type="cellIs" dxfId="57" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="50" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11 C17:C18">
-    <cfRule type="cellIs" dxfId="56" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="49" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="55" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="48" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="54" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="47" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="cellIs" dxfId="53" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="46" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C12 C17:C21 A27:H27 E24:H24 A13:H15 A29:A32 G29 C29:C32 A25:E26 G25:H26 A28:E28 G28:H28 B34:B35 C36:C67 C70:C90 C94:C1048576">
-    <cfRule type="cellIs" dxfId="52" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="45" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:E22 G22:H23 A23:C24 E23">
-    <cfRule type="cellIs" dxfId="51" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="43" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:E22 G22:H23 A23:C24 E23">
-    <cfRule type="cellIs" dxfId="50" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="42" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="49" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="41" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="48" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="40" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:B16 F16:G16">
-    <cfRule type="cellIs" dxfId="47" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="39" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:B16 F16:G16">
-    <cfRule type="cellIs" dxfId="46" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="38" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35 C35 A34 C34:D34 F34:H34">
-    <cfRule type="cellIs" dxfId="45" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="37" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35 C35 A34 C34:D34 F34:H34">
-    <cfRule type="cellIs" dxfId="44" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="36" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="43" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="35" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="42" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="cellIs" dxfId="41" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="33" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="cellIs" dxfId="40" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="32" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="cellIs" dxfId="39" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="cellIs" dxfId="38" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="37" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="29" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="36" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="28" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52">
-    <cfRule type="cellIs" dxfId="35" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="27" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52">
-    <cfRule type="cellIs" dxfId="34" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="33" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="32" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68">
-    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68">
-    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69">
-    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="21" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69">
-    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:B87">
-    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:B87">
-    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91:C93">
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91:C93">
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"xref"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"mref"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6612,9 +6457,9 @@
       <selection activeCell="A303" sqref="A303:XFD303"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -8144,9 +7989,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -8248,89 +8093,89 @@
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>529</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>529</v>
+      </c>
+      <c r="B3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C3" t="s">
+        <v>530</v>
+      </c>
+      <c r="D3" t="s">
         <v>531</v>
       </c>
-      <c r="B3" t="s">
-        <v>532</v>
-      </c>
-      <c r="C3" t="s">
-        <v>532</v>
-      </c>
-      <c r="D3" t="s">
-        <v>533</v>
-      </c>
       <c r="E3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
